--- a/scripts/data_analysis/out/analysis_result_x265_vs._vvenc.xlsx
+++ b/scripts/data_analysis/out/analysis_result_x265_vs._vvenc.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="result" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="anchor_data" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="refer_data" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="refer1_data" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -83,7 +83,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Beauty_3840x2160_50_600_qp40(anchor)</a:t>
+              <a:t>Beauty_3840x2160</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -143,12 +143,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$2:$D$5</f>
+              <f>'refer1_data'!$D$2:$D$5</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$2:$E$5</f>
+              <f>'refer1_data'!$E$2:$E$5</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -158,6 +158,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="32"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -173,33 +200,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="29"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -231,7 +231,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Kimono1_1920x1080_24_240_qp40(anchor)</a:t>
+              <a:t>Kimono1_1920x1080</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -291,12 +291,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$38:$D$41</f>
+              <f>'refer1_data'!$D$38:$D$41</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$38:$E$41</f>
+              <f>'refer1_data'!$E$38:$E$41</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -306,6 +306,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="31"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -321,33 +348,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="28"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -379,7 +379,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>ParkScene_1920x1080_24_240_qp40(anchor)</a:t>
+              <a:t>ParkScene_1920x1080</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -439,12 +439,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$42:$D$45</f>
+              <f>'refer1_data'!$D$42:$D$45</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$42:$E$45</f>
+              <f>'refer1_data'!$E$42:$E$45</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -454,6 +454,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="28"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -469,33 +496,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="25"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -527,7 +527,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>BasketballDrill_832x480_50_500_qp40(anchor)</a:t>
+              <a:t>BasketballDrill_832x480</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -587,12 +587,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$46:$D$49</f>
+              <f>'refer1_data'!$D$46:$D$49</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$46:$E$49</f>
+              <f>'refer1_data'!$E$46:$E$49</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -602,6 +602,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="28"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -617,33 +644,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="25"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -675,7 +675,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>BQMall_832x480_60_600_qp40(anchor)</a:t>
+              <a:t>BQMall_832x480</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -735,12 +735,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$50:$D$53</f>
+              <f>'refer1_data'!$D$50:$D$53</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$50:$E$53</f>
+              <f>'refer1_data'!$E$50:$E$53</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -750,6 +750,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="28"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -765,33 +792,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="25"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -823,7 +823,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>PartyScene_832x480_50_500_qp40(anchor)</a:t>
+              <a:t>PartyScene_832x480</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -883,12 +883,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$54:$D$57</f>
+              <f>'refer1_data'!$D$54:$D$57</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$54:$E$57</f>
+              <f>'refer1_data'!$E$54:$E$57</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -898,6 +898,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="24"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -913,33 +940,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="21"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -971,7 +971,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>RaceHorses_832x480_30_300_qp40(anchor)</a:t>
+              <a:t>RaceHorses_832x480</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -1031,12 +1031,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$58:$D$61</f>
+              <f>'refer1_data'!$D$58:$D$61</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$58:$E$61</f>
+              <f>'refer1_data'!$E$58:$E$61</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -1046,6 +1046,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="26"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1061,33 +1088,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="23"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1119,7 +1119,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>BasketballPass_416x240_50_500_qp40(anchor)</a:t>
+              <a:t>BasketballPass_416x240</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -1179,12 +1179,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$62:$D$65</f>
+              <f>'refer1_data'!$D$62:$D$65</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$62:$E$65</f>
+              <f>'refer1_data'!$E$62:$E$65</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -1194,6 +1194,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="27"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1209,33 +1236,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="24"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1267,7 +1267,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>BlowingBubbles_416x240_50_500_qp40(anchor)</a:t>
+              <a:t>BlowingBubbles_416x240</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -1327,12 +1327,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$66:$D$69</f>
+              <f>'refer1_data'!$D$66:$D$69</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$66:$E$69</f>
+              <f>'refer1_data'!$E$66:$E$69</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -1342,6 +1342,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="24"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1357,33 +1384,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="21"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1415,7 +1415,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>BQSquare_416x240_60_600_qp40(anchor)</a:t>
+              <a:t>BQSquare_416x240</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -1475,12 +1475,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$70:$D$73</f>
+              <f>'refer1_data'!$D$70:$D$73</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$70:$E$73</f>
+              <f>'refer1_data'!$E$70:$E$73</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -1490,6 +1490,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="23"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1505,33 +1532,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="20"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1563,7 +1563,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>RaceHorses_416x240_30_300_qp40(anchor)</a:t>
+              <a:t>RaceHorses_416x240</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -1623,12 +1623,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$74:$D$77</f>
+              <f>'refer1_data'!$D$74:$D$77</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$74:$E$77</f>
+              <f>'refer1_data'!$E$74:$E$77</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -1638,6 +1638,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="26"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1653,33 +1680,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="23"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1711,7 +1711,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Chimei-inn_3840x2160_50_317_qp40(anchor)</a:t>
+              <a:t>Chimei-inn_3840x2160</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -1771,12 +1771,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$6:$D$9</f>
+              <f>'refer1_data'!$D$6:$D$9</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$6:$E$9</f>
+              <f>'refer1_data'!$E$6:$E$9</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -1786,6 +1786,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="33"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1801,33 +1828,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="30"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1859,7 +1859,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>FourPeople_1280x720_60_600_qp40(anchor)</a:t>
+              <a:t>FourPeople_1280x720</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -1919,12 +1919,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$78:$D$81</f>
+              <f>'refer1_data'!$D$78:$D$81</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$78:$E$81</f>
+              <f>'refer1_data'!$E$78:$E$81</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -1934,6 +1934,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="31"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1949,33 +1976,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="28"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2007,7 +2007,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Johnny_1280x720_60_600_qp40(anchor)</a:t>
+              <a:t>Johnny_1280x720</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -2067,12 +2067,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$82:$D$85</f>
+              <f>'refer1_data'!$D$82:$D$85</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$82:$E$85</f>
+              <f>'refer1_data'!$E$82:$E$85</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -2082,6 +2082,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="33"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2097,33 +2124,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="30"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2155,7 +2155,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>KristenAndSara_1280x720_60_600_qp40(anchor)</a:t>
+              <a:t>KristenAndSara_1280x720</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -2215,12 +2215,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$86:$D$89</f>
+              <f>'refer1_data'!$D$86:$D$89</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$86:$E$89</f>
+              <f>'refer1_data'!$E$86:$E$89</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -2230,6 +2230,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="33"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2245,33 +2272,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="30"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2303,7 +2303,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>BasketballDrillText_832x480_50_500_qp40(anchor)</a:t>
+              <a:t>BasketballDrillText_832x480</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -2363,12 +2363,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$90:$D$93</f>
+              <f>'refer1_data'!$D$90:$D$93</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$90:$E$93</f>
+              <f>'refer1_data'!$E$90:$E$93</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -2378,6 +2378,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="28"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2393,33 +2420,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="25"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2451,7 +2451,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>ChinaSpeed_1024x768_30_300_qp40(anchor)</a:t>
+              <a:t>ChinaSpeed_1024x768</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -2511,12 +2511,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$94:$D$97</f>
+              <f>'refer1_data'!$D$94:$D$97</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$94:$E$97</f>
+              <f>'refer1_data'!$E$94:$E$97</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -2526,6 +2526,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="27"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2541,33 +2568,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="24"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2599,7 +2599,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>SlideEditing_1280x720_30_300_qp40(anchor)</a:t>
+              <a:t>SlideEditing_1280x720</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -2659,12 +2659,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$98:$D$101</f>
+              <f>'refer1_data'!$D$98:$D$101</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$98:$E$101</f>
+              <f>'refer1_data'!$E$98:$E$101</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -2674,6 +2674,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="24"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2689,33 +2716,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="21"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2747,7 +2747,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>SlideShow_1280x720_20_500_qp40(anchor)</a:t>
+              <a:t>SlideShow_1280x720</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -2807,12 +2807,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$102:$D$105</f>
+              <f>'refer1_data'!$D$102:$D$105</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$102:$E$105</f>
+              <f>'refer1_data'!$E$102:$E$105</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -2822,6 +2822,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="33"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2837,33 +2864,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="30"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2895,7 +2895,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Girlhood_3840x2160_50_235_qp40(anchor)</a:t>
+              <a:t>Girlhood_3840x2160</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -2955,12 +2955,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$10:$D$13</f>
+              <f>'refer1_data'!$D$10:$D$13</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$10:$E$13</f>
+              <f>'refer1_data'!$E$10:$E$13</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -2970,6 +2970,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="33"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2985,33 +3012,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="30"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3043,7 +3043,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>RaceNight_3840x2160_50_235_qp40(anchor)</a:t>
+              <a:t>RaceNight_3840x2160</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -3103,12 +3103,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$14:$D$17</f>
+              <f>'refer1_data'!$D$14:$D$17</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$14:$E$17</f>
+              <f>'refer1_data'!$E$14:$E$17</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -3118,6 +3118,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="31"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -3133,33 +3160,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="28"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3191,7 +3191,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>PeopleOnStreet_2560x1600_30_crop_150_qp40(anchor)</a:t>
+              <a:t>PeopleOnStreet_2560x1600</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -3251,12 +3251,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$18:$D$21</f>
+              <f>'refer1_data'!$D$18:$D$21</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$18:$E$21</f>
+              <f>'refer1_data'!$E$18:$E$21</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -3266,6 +3266,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="26"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -3281,33 +3308,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="23"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3339,7 +3339,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Traffic_2560x1600_30_crop_150_qp40(anchor)</a:t>
+              <a:t>Traffic_2560x1600</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -3399,12 +3399,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$22:$D$25</f>
+              <f>'refer1_data'!$D$22:$D$25</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$22:$E$25</f>
+              <f>'refer1_data'!$E$22:$E$25</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -3414,6 +3414,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="29"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -3429,33 +3456,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="26"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3487,7 +3487,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>BasketballDrive_1920x1080_50_500_qp40(anchor)</a:t>
+              <a:t>BasketballDrive_1920x1080</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -3547,12 +3547,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$26:$D$29</f>
+              <f>'refer1_data'!$D$26:$D$29</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$26:$E$29</f>
+              <f>'refer1_data'!$E$26:$E$29</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -3562,6 +3562,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="29"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -3577,33 +3604,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="26"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3635,7 +3635,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>BQTerrace_1920x1080_60_600_qp40(anchor)</a:t>
+              <a:t>BQTerrace_1920x1080</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -3695,12 +3695,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$30:$D$33</f>
+              <f>'refer1_data'!$D$30:$D$33</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$30:$E$33</f>
+              <f>'refer1_data'!$E$30:$E$33</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -3710,6 +3710,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="28"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -3725,33 +3752,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="25"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3783,7 +3783,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Cactus_1920x1080_50_500_qp40(anchor)</a:t>
+              <a:t>Cactus_1920x1080</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -3843,12 +3843,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'refer_data'!$D$34:$D$37</f>
+              <f>'refer1_data'!$D$34:$D$37</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'refer_data'!$E$34:$E$37</f>
+              <f>'refer1_data'!$E$34:$E$37</f>
             </numRef>
           </yVal>
           <smooth val="1"/>
@@ -3858,6 +3858,33 @@
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="29"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -3873,33 +3900,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="26"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>﻿Beauty_3840x2160_50_600_qp40(anchor)</t>
+          <t>﻿Beauty_3840x2160</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>﻿Chimei-inn_3840x2160_50_317_qp40(anchor)</t>
+          <t>﻿Chimei-inn_3840x2160</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4892,7 +4892,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>﻿Girlhood_3840x2160_50_235_qp40(anchor)</t>
+          <t>﻿Girlhood_3840x2160</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4920,7 +4920,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>﻿RaceNight_3840x2160_50_235_qp40(anchor)</t>
+          <t>﻿RaceNight_3840x2160</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4948,7 +4948,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>﻿PeopleOnStreet_2560x1600_30_crop_150_qp40(anchor)</t>
+          <t>﻿PeopleOnStreet_2560x1600</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>﻿Traffic_2560x1600_30_crop_150_qp40(anchor)</t>
+          <t>﻿Traffic_2560x1600</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -5004,7 +5004,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>﻿BasketballDrive_1920x1080_50_500_qp40(anchor)</t>
+          <t>﻿BasketballDrive_1920x1080</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>﻿BQTerrace_1920x1080_60_600_qp40(anchor)</t>
+          <t>﻿BQTerrace_1920x1080</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -5060,7 +5060,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>﻿Cactus_1920x1080_50_500_qp40(anchor)</t>
+          <t>﻿Cactus_1920x1080</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -5088,7 +5088,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>﻿Kimono1_1920x1080_24_240_qp40(anchor)</t>
+          <t>﻿Kimono1_1920x1080</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -5116,7 +5116,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>﻿ParkScene_1920x1080_24_240_qp40(anchor)</t>
+          <t>﻿ParkScene_1920x1080</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -5144,7 +5144,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>﻿BasketballDrill_832x480_50_500_qp40(anchor)</t>
+          <t>﻿BasketballDrill_832x480</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>﻿BQMall_832x480_60_600_qp40(anchor)</t>
+          <t>﻿BQMall_832x480</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>﻿PartyScene_832x480_50_500_qp40(anchor)</t>
+          <t>﻿PartyScene_832x480</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -5228,7 +5228,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>﻿RaceHorses_832x480_30_300_qp40(anchor)</t>
+          <t>﻿RaceHorses_832x480</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>﻿BasketballPass_416x240_50_500_qp40(anchor)</t>
+          <t>﻿BasketballPass_416x240</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>﻿BlowingBubbles_416x240_50_500_qp40(anchor)</t>
+          <t>﻿BlowingBubbles_416x240</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -5312,7 +5312,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>﻿BQSquare_416x240_60_600_qp40(anchor)</t>
+          <t>﻿BQSquare_416x240</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -5340,7 +5340,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>﻿RaceHorses_416x240_30_300_qp40(anchor)</t>
+          <t>﻿RaceHorses_416x240</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>﻿FourPeople_1280x720_60_600_qp40(anchor)</t>
+          <t>﻿FourPeople_1280x720</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -5396,7 +5396,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>﻿Johnny_1280x720_60_600_qp40(anchor)</t>
+          <t>﻿Johnny_1280x720</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -5424,7 +5424,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>﻿KristenAndSara_1280x720_60_600_qp40(anchor)</t>
+          <t>﻿KristenAndSara_1280x720</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -5452,7 +5452,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>﻿BasketballDrillText_832x480_50_500_qp40(anchor)</t>
+          <t>﻿BasketballDrillText_832x480</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -5480,7 +5480,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>﻿ChinaSpeed_1024x768_30_300_qp40(anchor)</t>
+          <t>﻿ChinaSpeed_1024x768</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>﻿SlideEditing_1280x720_30_300_qp40(anchor)</t>
+          <t>﻿SlideEditing_1280x720</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -5536,7 +5536,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>﻿SlideShow_1280x720_20_500_qp40(anchor)</t>
+          <t>﻿SlideShow_1280x720</t>
         </is>
       </c>
       <c r="C27" t="n">

--- a/scripts/data_analysis/out/analysis_result_x265_vs._vvenc.xlsx
+++ b/scripts/data_analysis/out/analysis_result_x265_vs._vvenc.xlsx
@@ -160,7 +160,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="32"/>
+          <min val="31"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -308,7 +308,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="31"/>
+          <min val="29"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -456,7 +456,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="28"/>
+          <min val="27"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -604,7 +604,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="28"/>
+          <min val="27"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -752,7 +752,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="28"/>
+          <min val="26"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -900,7 +900,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="24"/>
+          <min val="21"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -1048,7 +1048,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="26"/>
+          <min val="24"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -1196,7 +1196,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="27"/>
+          <min val="25"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -1344,7 +1344,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="24"/>
+          <min val="23"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -1492,7 +1492,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="23"/>
+          <min val="22"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -1640,7 +1640,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="26"/>
+          <min val="24"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -1788,7 +1788,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="33"/>
+          <min val="32"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -2232,7 +2232,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="33"/>
+          <min val="32"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -2380,7 +2380,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="28"/>
+          <min val="26"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -2528,7 +2528,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="27"/>
+          <min val="25"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -2676,7 +2676,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="24"/>
+          <min val="20"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -2972,7 +2972,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="33"/>
+          <min val="31"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -3120,7 +3120,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="31"/>
+          <min val="30"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -3268,7 +3268,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="26"/>
+          <min val="23"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -3416,7 +3416,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="29"/>
+          <min val="27"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -3564,7 +3564,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="29"/>
+          <min val="27"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -3712,7 +3712,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="28"/>
+          <min val="26"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -3860,7 +3860,7 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="29"/>
+          <min val="27"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -4840,22 +4840,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-44.6</v>
+        <v>-45.3</v>
       </c>
       <c r="D2" t="n">
-        <v>-44.7</v>
+        <v>-45.2</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.206</v>
+        <v>-0.436</v>
       </c>
       <c r="F2" t="n">
-        <v>1.534</v>
+        <v>1.448</v>
       </c>
       <c r="G2" t="n">
-        <v>3.323</v>
+        <v>3.202</v>
       </c>
       <c r="H2" t="n">
-        <v>3328.839</v>
+        <v>2560.618</v>
       </c>
     </row>
     <row r="3">
@@ -4868,22 +4868,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-39.9</v>
+        <v>-38.9</v>
       </c>
       <c r="D3" t="n">
-        <v>-39.9</v>
+        <v>-39.2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.206</v>
+        <v>-0.8859999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>5.011</v>
+        <v>4.188</v>
       </c>
       <c r="G3" t="n">
-        <v>5.086</v>
+        <v>4.246</v>
       </c>
       <c r="H3" t="n">
-        <v>3314.213</v>
+        <v>2828.763</v>
       </c>
     </row>
     <row r="4">
@@ -4896,22 +4896,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-29.4</v>
+        <v>-29.2</v>
       </c>
       <c r="D4" t="n">
-        <v>-29.4</v>
+        <v>-29.3</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.245</v>
+        <v>-2.477</v>
       </c>
       <c r="F4" t="n">
-        <v>2.754</v>
+        <v>1.795</v>
       </c>
       <c r="G4" t="n">
-        <v>1.847</v>
+        <v>0.8190000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>2491.699</v>
+        <v>2476.13</v>
       </c>
     </row>
     <row r="5">
@@ -4924,22 +4924,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-41.4</v>
+        <v>-41.9</v>
       </c>
       <c r="D5" t="n">
-        <v>-44.3</v>
+        <v>-45.6</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.6409999999999999</v>
+        <v>-1.289</v>
       </c>
       <c r="F5" t="n">
-        <v>4.636</v>
+        <v>4.053</v>
       </c>
       <c r="G5" t="n">
-        <v>4.434</v>
+        <v>3.885</v>
       </c>
       <c r="H5" t="n">
-        <v>2864.374</v>
+        <v>2816.883</v>
       </c>
     </row>
     <row r="6">
@@ -4952,22 +4952,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-33.6</v>
+        <v>-33.4</v>
       </c>
       <c r="D6" t="n">
         <v>-33.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.244</v>
+        <v>-3.685</v>
       </c>
       <c r="F6" t="n">
-        <v>4.141</v>
+        <v>3.564</v>
       </c>
       <c r="G6" t="n">
-        <v>4.928</v>
+        <v>4.445</v>
       </c>
       <c r="H6" t="n">
-        <v>2138.525</v>
+        <v>2128.235</v>
       </c>
     </row>
     <row r="7">
@@ -4980,22 +4980,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-43.8</v>
+        <v>-43.5</v>
       </c>
       <c r="D7" t="n">
-        <v>-43.8</v>
+        <v>-43.6</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.275</v>
+        <v>-1.553</v>
       </c>
       <c r="F7" t="n">
-        <v>1.689</v>
+        <v>1.163</v>
       </c>
       <c r="G7" t="n">
-        <v>3.348</v>
+        <v>2.809</v>
       </c>
       <c r="H7" t="n">
-        <v>2316.169</v>
+        <v>2329.868</v>
       </c>
     </row>
     <row r="8">
@@ -5008,22 +5008,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-45.5</v>
+        <v>-45.3</v>
       </c>
       <c r="D8" t="n">
-        <v>-45.7</v>
+        <v>-45.6</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.8490000000000001</v>
+        <v>-1.868</v>
       </c>
       <c r="F8" t="n">
-        <v>3.713</v>
+        <v>3.101</v>
       </c>
       <c r="G8" t="n">
-        <v>3.257</v>
+        <v>2.415</v>
       </c>
       <c r="H8" t="n">
-        <v>2939.046</v>
+        <v>2899.638</v>
       </c>
     </row>
     <row r="9">
@@ -5036,22 +5036,22 @@
         </is>
       </c>
       <c r="C9" t="n">
+        <v>-47.4</v>
+      </c>
+      <c r="D9" t="n">
         <v>-48</v>
       </c>
-      <c r="D9" t="n">
-        <v>-47.8</v>
-      </c>
       <c r="E9" t="n">
-        <v>-0.5820000000000001</v>
+        <v>-1.54</v>
       </c>
       <c r="F9" t="n">
-        <v>4.548</v>
+        <v>4.078</v>
       </c>
       <c r="G9" t="n">
-        <v>6.627999999999999</v>
+        <v>6.209</v>
       </c>
       <c r="H9" t="n">
-        <v>2344.277</v>
+        <v>2272.438</v>
       </c>
     </row>
     <row r="10">
@@ -5064,22 +5064,22 @@
         </is>
       </c>
       <c r="C10" t="n">
+        <v>-44</v>
+      </c>
+      <c r="D10" t="n">
         <v>-44.5</v>
       </c>
-      <c r="D10" t="n">
-        <v>-44.6</v>
-      </c>
       <c r="E10" t="n">
-        <v>-0.345</v>
+        <v>-1.399</v>
       </c>
       <c r="F10" t="n">
-        <v>2.526</v>
+        <v>2.055</v>
       </c>
       <c r="G10" t="n">
-        <v>4.091</v>
+        <v>3.367</v>
       </c>
       <c r="H10" t="n">
-        <v>2921.837</v>
+        <v>2894.077</v>
       </c>
     </row>
     <row r="11">
@@ -5092,22 +5092,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-34.6</v>
+        <v>-34.4</v>
       </c>
       <c r="D11" t="n">
-        <v>-34.6</v>
+        <v>-34.5</v>
       </c>
       <c r="E11" t="n">
-        <v>0.113</v>
+        <v>-1.055</v>
       </c>
       <c r="F11" t="n">
-        <v>3.037</v>
+        <v>2.504</v>
       </c>
       <c r="G11" t="n">
-        <v>3.87</v>
+        <v>3.394</v>
       </c>
       <c r="H11" t="n">
-        <v>2605.958</v>
+        <v>2539.115</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-45.4</v>
+        <v>-45.3</v>
       </c>
       <c r="D12" t="n">
         <v>-45.4</v>
       </c>
       <c r="E12" t="n">
-        <v>0.148</v>
+        <v>-0.9640000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>3.688</v>
+        <v>3.093</v>
       </c>
       <c r="G12" t="n">
-        <v>4.423</v>
+        <v>3.987</v>
       </c>
       <c r="H12" t="n">
-        <v>2806.224</v>
+        <v>2703.431</v>
       </c>
     </row>
     <row r="13">
@@ -5148,22 +5148,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-49</v>
+        <v>-48.8</v>
       </c>
       <c r="D13" t="n">
-        <v>-49</v>
+        <v>-48.8</v>
       </c>
       <c r="E13" t="n">
-        <v>0.486</v>
+        <v>-0.743</v>
       </c>
       <c r="F13" t="n">
-        <v>3.512</v>
+        <v>2.638</v>
       </c>
       <c r="G13" t="n">
-        <v>3.547</v>
+        <v>2.539</v>
       </c>
       <c r="H13" t="n">
-        <v>3140.572</v>
+        <v>2943.227</v>
       </c>
     </row>
     <row r="14">
@@ -5176,22 +5176,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-44.4</v>
+        <v>-44.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-44.4</v>
+        <v>-44.3</v>
       </c>
       <c r="E14" t="n">
-        <v>0.064</v>
+        <v>-1.238</v>
       </c>
       <c r="F14" t="n">
-        <v>4.398</v>
+        <v>3.607</v>
       </c>
       <c r="G14" t="n">
-        <v>5.069</v>
+        <v>4.173999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>2755.343</v>
+        <v>2721.921</v>
       </c>
     </row>
     <row r="15">
@@ -5204,22 +5204,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-50.4</v>
+        <v>-50.2</v>
       </c>
       <c r="D15" t="n">
-        <v>-50.5</v>
+        <v>-50.3</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.735</v>
+        <v>-2.005</v>
       </c>
       <c r="F15" t="n">
-        <v>3.934</v>
+        <v>3.226</v>
       </c>
       <c r="G15" t="n">
-        <v>4.539</v>
+        <v>3.796</v>
       </c>
       <c r="H15" t="n">
-        <v>2554.887</v>
+        <v>2462.407</v>
       </c>
     </row>
     <row r="16">
@@ -5232,22 +5232,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-36.4</v>
+        <v>-35.8</v>
       </c>
       <c r="D16" t="n">
-        <v>-36.4</v>
+        <v>-36.1</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.885</v>
+        <v>-2.064</v>
       </c>
       <c r="F16" t="n">
-        <v>2.599</v>
+        <v>1.848</v>
       </c>
       <c r="G16" t="n">
-        <v>3.912</v>
+        <v>3.053</v>
       </c>
       <c r="H16" t="n">
-        <v>2755.681</v>
+        <v>2649.028</v>
       </c>
     </row>
     <row r="17">
@@ -5266,16 +5266,16 @@
         <v>-37.9</v>
       </c>
       <c r="E17" t="n">
-        <v>0.523</v>
+        <v>-0.85</v>
       </c>
       <c r="F17" t="n">
-        <v>4.697</v>
+        <v>4.316</v>
       </c>
       <c r="G17" t="n">
-        <v>3.235</v>
+        <v>2.677</v>
       </c>
       <c r="H17" t="n">
-        <v>3054.505</v>
+        <v>2995.483</v>
       </c>
     </row>
     <row r="18">
@@ -5288,22 +5288,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-49.1</v>
+        <v>-49.4</v>
       </c>
       <c r="D18" t="n">
-        <v>-49.1</v>
+        <v>-49.5</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6729999999999999</v>
+        <v>-0.623</v>
       </c>
       <c r="F18" t="n">
-        <v>4.505</v>
+        <v>4.111000000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>5.246</v>
+        <v>4.829</v>
       </c>
       <c r="H18" t="n">
-        <v>2941.056</v>
+        <v>2847.878</v>
       </c>
     </row>
     <row r="19">
@@ -5316,22 +5316,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-50.8</v>
+        <v>-50.5</v>
       </c>
       <c r="D19" t="n">
-        <v>-50.8</v>
+        <v>-50.4</v>
       </c>
       <c r="E19" t="n">
-        <v>0.307</v>
+        <v>-1.011</v>
       </c>
       <c r="F19" t="n">
-        <v>6.711</v>
+        <v>6.559</v>
       </c>
       <c r="G19" t="n">
-        <v>7.519</v>
+        <v>7.255</v>
       </c>
       <c r="H19" t="n">
-        <v>2300.885</v>
+        <v>2262.374</v>
       </c>
     </row>
     <row r="20">
@@ -5344,22 +5344,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-36.6</v>
+        <v>-36.2</v>
       </c>
       <c r="D20" t="n">
-        <v>-36.7</v>
+        <v>-36.4</v>
       </c>
       <c r="E20" t="n">
-        <v>0.181</v>
+        <v>-1.115</v>
       </c>
       <c r="F20" t="n">
-        <v>3.392</v>
+        <v>2.485</v>
       </c>
       <c r="G20" t="n">
-        <v>4.305</v>
+        <v>3.339</v>
       </c>
       <c r="H20" t="n">
-        <v>2925.215</v>
+        <v>2806.948</v>
       </c>
     </row>
     <row r="21">
@@ -5372,22 +5372,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-35.8</v>
+        <v>-35</v>
       </c>
       <c r="D21" t="n">
-        <v>-35.4</v>
+        <v>-34.9</v>
       </c>
       <c r="E21" t="n">
-        <v>1.36</v>
+        <v>0.128</v>
       </c>
       <c r="F21" t="n">
-        <v>5.448</v>
+        <v>4.641999999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>6.495</v>
+        <v>5.62</v>
       </c>
       <c r="H21" t="n">
-        <v>3012.925</v>
+        <v>3056.972</v>
       </c>
     </row>
     <row r="22">
@@ -5400,22 +5400,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-38.7</v>
+        <v>-37.8</v>
       </c>
       <c r="D22" t="n">
-        <v>-37.5</v>
+        <v>-37.1</v>
       </c>
       <c r="E22" t="n">
-        <v>1.593</v>
+        <v>0.639</v>
       </c>
       <c r="F22" t="n">
-        <v>6.121</v>
+        <v>5.312</v>
       </c>
       <c r="G22" t="n">
-        <v>6.747000000000001</v>
+        <v>5.974</v>
       </c>
       <c r="H22" t="n">
-        <v>2945.299</v>
+        <v>2985.609</v>
       </c>
     </row>
     <row r="23">
@@ -5428,22 +5428,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-28.6</v>
+        <v>-29</v>
       </c>
       <c r="D23" t="n">
-        <v>-28</v>
+        <v>-28.7</v>
       </c>
       <c r="E23" t="n">
-        <v>1.402</v>
+        <v>0.328</v>
       </c>
       <c r="F23" t="n">
-        <v>5.456</v>
+        <v>4.662</v>
       </c>
       <c r="G23" t="n">
-        <v>6.284</v>
+        <v>5.459</v>
       </c>
       <c r="H23" t="n">
-        <v>3216.876</v>
+        <v>3219.581</v>
       </c>
     </row>
     <row r="24">
@@ -5456,22 +5456,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-49.7</v>
+        <v>-49.5</v>
       </c>
       <c r="D24" t="n">
-        <v>-49.6</v>
+        <v>-49.5</v>
       </c>
       <c r="E24" t="n">
-        <v>0.235</v>
+        <v>-1.066</v>
       </c>
       <c r="F24" t="n">
-        <v>2.916</v>
+        <v>1.985</v>
       </c>
       <c r="G24" t="n">
-        <v>2.957</v>
+        <v>1.928</v>
       </c>
       <c r="H24" t="n">
-        <v>2951.519</v>
+        <v>2855.149</v>
       </c>
     </row>
     <row r="25">
@@ -5484,22 +5484,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-33.3</v>
+        <v>-32.8</v>
       </c>
       <c r="D25" t="n">
-        <v>-33.3</v>
+        <v>-33.1</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.166</v>
+        <v>-2.485</v>
       </c>
       <c r="F25" t="n">
-        <v>4.49</v>
+        <v>3.599</v>
       </c>
       <c r="G25" t="n">
-        <v>3.215</v>
+        <v>2.361</v>
       </c>
       <c r="H25" t="n">
-        <v>2732.26</v>
+        <v>2543.34</v>
       </c>
     </row>
     <row r="26">
@@ -5512,22 +5512,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-11.5</v>
+        <v>-11</v>
       </c>
       <c r="D26" t="n">
-        <v>-11.7</v>
+        <v>-11.3</v>
       </c>
       <c r="E26" t="n">
-        <v>-3.959</v>
+        <v>-6.212999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.266</v>
+        <v>-0.996</v>
       </c>
       <c r="G26" t="n">
-        <v>0.598</v>
+        <v>-0.305</v>
       </c>
       <c r="H26" t="n">
-        <v>2591.847</v>
+        <v>2580.417</v>
       </c>
     </row>
     <row r="27">
@@ -5540,22 +5540,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-59.8</v>
+        <v>-60</v>
       </c>
       <c r="D27" t="n">
-        <v>-59.8</v>
+        <v>-60</v>
       </c>
       <c r="E27" t="n">
-        <v>1.394</v>
+        <v>-0.146</v>
       </c>
       <c r="F27" t="n">
-        <v>5.778</v>
+        <v>4.64</v>
       </c>
       <c r="G27" t="n">
-        <v>7.031000000000001</v>
+        <v>6.022</v>
       </c>
       <c r="H27" t="n">
-        <v>2003.463</v>
+        <v>1976.248</v>
       </c>
     </row>
     <row r="28">
@@ -5564,26 +5564,26 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>﻿Average</t>
+          <t>﻿Average:</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-40.9</v>
+        <v>-40.6</v>
       </c>
       <c r="D28" t="n">
         <v>-40.9</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.171</v>
+        <v>-1.37</v>
       </c>
       <c r="F28" t="n">
-        <v>3.883</v>
+        <v>3.218</v>
       </c>
       <c r="G28" t="n">
-        <v>4.459</v>
+        <v>3.75</v>
       </c>
       <c r="H28" t="n">
-        <v>2767.442</v>
+        <v>2667.53</v>
       </c>
     </row>
   </sheetData>
@@ -8636,7 +8636,7 @@
         <v>39.555</v>
       </c>
       <c r="H2" t="n">
-        <v>19766.7</v>
+        <v>19766</v>
       </c>
     </row>
     <row r="3">
@@ -8645,26 +8645,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beauty_3840x2160_50_600_qp30(anchor)</t>
+          <t>Beauty_3840x2160_50_600_qp32(anchor)</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>600</v>
       </c>
       <c r="D3" t="n">
-        <v>2619.2256</v>
+        <v>1362.2948</v>
       </c>
       <c r="E3" t="n">
-        <v>34.8701</v>
+        <v>34.7594</v>
       </c>
       <c r="F3" t="n">
-        <v>37.0897</v>
+        <v>37.0442</v>
       </c>
       <c r="G3" t="n">
-        <v>39.4449</v>
+        <v>39.384</v>
       </c>
       <c r="H3" t="n">
-        <v>11117.2</v>
+        <v>8147.2</v>
       </c>
     </row>
     <row r="4">
@@ -8673,26 +8673,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beauty_3840x2160_50_600_qp35(anchor)</t>
+          <t>Beauty_3840x2160_50_600_qp38(anchor)</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>600</v>
       </c>
       <c r="D4" t="n">
-        <v>676.8052</v>
+        <v>433.0568</v>
       </c>
       <c r="E4" t="n">
-        <v>34.5738</v>
+        <v>34.3418</v>
       </c>
       <c r="F4" t="n">
-        <v>36.9743</v>
+        <v>36.8665</v>
       </c>
       <c r="G4" t="n">
-        <v>39.2604</v>
+        <v>39.0879</v>
       </c>
       <c r="H4" t="n">
-        <v>5400.62</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="5">
@@ -8701,26 +8701,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Beauty_3840x2160_50_600_qp40(anchor)</t>
+          <t>Beauty_3840x2160_50_600_qp45(anchor)</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>600</v>
       </c>
       <c r="D5" t="n">
-        <v>335.6828</v>
+        <v>177.4424</v>
       </c>
       <c r="E5" t="n">
-        <v>34.1721</v>
+        <v>33.5978</v>
       </c>
       <c r="F5" t="n">
-        <v>36.7694</v>
+        <v>36.5762</v>
       </c>
       <c r="G5" t="n">
-        <v>38.9497</v>
+        <v>38.6992</v>
       </c>
       <c r="H5" t="n">
-        <v>3176.75</v>
+        <v>1933.41</v>
       </c>
     </row>
     <row r="6">
@@ -8748,7 +8748,7 @@
         <v>48.3015</v>
       </c>
       <c r="H6" t="n">
-        <v>4237.75</v>
+        <v>4230.21</v>
       </c>
     </row>
     <row r="7">
@@ -8757,26 +8757,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chimei-inn_3840x2160_50_317_qp30(anchor)</t>
+          <t>Chimei-inn_3840x2160_50_317_qp32(anchor)</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>317</v>
       </c>
       <c r="D7" t="n">
-        <v>2507.5336</v>
+        <v>1863.7802</v>
       </c>
       <c r="E7" t="n">
-        <v>41.5334</v>
+        <v>40.4886</v>
       </c>
       <c r="F7" t="n">
-        <v>46.9457</v>
+        <v>46.2293</v>
       </c>
       <c r="G7" t="n">
-        <v>47.1342</v>
+        <v>46.3736</v>
       </c>
       <c r="H7" t="n">
-        <v>3220.34</v>
+        <v>2690.59</v>
       </c>
     </row>
     <row r="8">
@@ -8785,26 +8785,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chimei-inn_3840x2160_50_317_qp35(anchor)</t>
+          <t>Chimei-inn_3840x2160_50_317_qp38(anchor)</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>317</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.9136</v>
+        <v>821.7705999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>38.7815</v>
+        <v>37.0947</v>
       </c>
       <c r="F8" t="n">
-        <v>45.1989</v>
+        <v>44.0185</v>
       </c>
       <c r="G8" t="n">
-        <v>45.299</v>
+        <v>44.0624</v>
       </c>
       <c r="H8" t="n">
-        <v>2208.14</v>
+        <v>1758.94</v>
       </c>
     </row>
     <row r="9">
@@ -8813,26 +8813,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chimei-inn_3840x2160_50_317_qp40(anchor)</t>
+          <t>Chimei-inn_3840x2160_50_317_qp45(anchor)</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>317</v>
       </c>
       <c r="D9" t="n">
-        <v>656.1327</v>
+        <v>371.76</v>
       </c>
       <c r="E9" t="n">
-        <v>36.5495</v>
+        <v>34.9137</v>
       </c>
       <c r="F9" t="n">
-        <v>43.3018</v>
+        <v>41.9079</v>
       </c>
       <c r="G9" t="n">
-        <v>43.3156</v>
+        <v>41.9515</v>
       </c>
       <c r="H9" t="n">
-        <v>1524.36</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="10">
@@ -8860,7 +8860,7 @@
         <v>46.6411</v>
       </c>
       <c r="H10" t="n">
-        <v>4414.22</v>
+        <v>4937.09</v>
       </c>
     </row>
     <row r="11">
@@ -8869,26 +8869,26 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Girlhood_3840x2160_50_235_qp30(anchor)</t>
+          <t>Girlhood_3840x2160_50_235_qp32(anchor)</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>235</v>
       </c>
       <c r="D11" t="n">
-        <v>5603.4934</v>
+        <v>4165.4431</v>
       </c>
       <c r="E11" t="n">
-        <v>40.9719</v>
+        <v>39.8667</v>
       </c>
       <c r="F11" t="n">
-        <v>46.1516</v>
+        <v>45.159</v>
       </c>
       <c r="G11" t="n">
-        <v>45.1148</v>
+        <v>44.0336</v>
       </c>
       <c r="H11" t="n">
-        <v>3451.2</v>
+        <v>3396.37</v>
       </c>
     </row>
     <row r="12">
@@ -8897,26 +8897,26 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Girlhood_3840x2160_50_235_qp35(anchor)</t>
+          <t>Girlhood_3840x2160_50_235_qp38(anchor)</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>235</v>
       </c>
       <c r="D12" t="n">
-        <v>2736.7261</v>
+        <v>1892.7105</v>
       </c>
       <c r="E12" t="n">
-        <v>38.2598</v>
+        <v>36.778</v>
       </c>
       <c r="F12" t="n">
-        <v>43.6027</v>
+        <v>42.1689</v>
       </c>
       <c r="G12" t="n">
-        <v>42.3891</v>
+        <v>40.8355</v>
       </c>
       <c r="H12" t="n">
-        <v>2422.45</v>
+        <v>2310.35</v>
       </c>
     </row>
     <row r="13">
@@ -8925,26 +8925,26 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Girlhood_3840x2160_50_235_qp40(anchor)</t>
+          <t>Girlhood_3840x2160_50_235_qp45(anchor)</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>235</v>
       </c>
       <c r="D13" t="n">
-        <v>1513.7137</v>
+        <v>859.0826</v>
       </c>
       <c r="E13" t="n">
-        <v>35.9802</v>
+        <v>33.6366</v>
       </c>
       <c r="F13" t="n">
-        <v>41.2669</v>
+        <v>39.8609</v>
       </c>
       <c r="G13" t="n">
-        <v>39.9136</v>
+        <v>38.4387</v>
       </c>
       <c r="H13" t="n">
-        <v>1740.35</v>
+        <v>1491.59</v>
       </c>
     </row>
     <row r="14">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>﻿RaceNight_3840x2160_50_235_qp27(anchor)</t>
+          <t>﻿RaceNight_3840x2160_50_600_qp27(anchor)</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -8972,7 +8972,7 @@
         <v>43.5394</v>
       </c>
       <c r="H14" t="n">
-        <v>10575.6</v>
+        <v>12172.2</v>
       </c>
     </row>
     <row r="15">
@@ -8981,26 +8981,26 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RaceNight_3840x2160_50_235_qp30(anchor)</t>
+          <t>RaceNight_3840x2160_50_600_qp32(anchor)</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>600</v>
       </c>
       <c r="D15" t="n">
-        <v>3066.7232</v>
+        <v>2079.6952</v>
       </c>
       <c r="E15" t="n">
-        <v>36.0073</v>
+        <v>35.6095</v>
       </c>
       <c r="F15" t="n">
-        <v>43.2201</v>
+        <v>42.6679</v>
       </c>
       <c r="G15" t="n">
-        <v>42.9273</v>
+        <v>42.4169</v>
       </c>
       <c r="H15" t="n">
-        <v>7629.61</v>
+        <v>7129.67</v>
       </c>
     </row>
     <row r="16">
@@ -9009,26 +9009,26 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>RaceNight_3840x2160_50_235_qp35(anchor)</t>
+          <t>RaceNight_3840x2160_50_600_qp38(anchor)</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>600</v>
       </c>
       <c r="D16" t="n">
-        <v>1398.3456</v>
+        <v>963.3144</v>
       </c>
       <c r="E16" t="n">
-        <v>34.8714</v>
+        <v>33.9919</v>
       </c>
       <c r="F16" t="n">
-        <v>41.6425</v>
+        <v>40.6499</v>
       </c>
       <c r="G16" t="n">
-        <v>41.4657</v>
+        <v>40.5258</v>
       </c>
       <c r="H16" t="n">
-        <v>4686.68</v>
+        <v>4390.52</v>
       </c>
     </row>
     <row r="17">
@@ -9037,26 +9037,26 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>RaceNight_3840x2160_50_235_qp40(anchor)</t>
+          <t>RaceNight_3840x2160_50_600_qp45(anchor)</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>600</v>
       </c>
       <c r="D17" t="n">
-        <v>796.4208</v>
+        <v>495.6324</v>
       </c>
       <c r="E17" t="n">
-        <v>33.5364</v>
+        <v>32.2245</v>
       </c>
       <c r="F17" t="n">
-        <v>40.1136</v>
+        <v>39.3274</v>
       </c>
       <c r="G17" t="n">
-        <v>40.0301</v>
+        <v>39.2863</v>
       </c>
       <c r="H17" t="n">
-        <v>3138.29</v>
+        <v>2426.57</v>
       </c>
     </row>
     <row r="18">
@@ -9084,7 +9084,7 @@
         <v>42.8634</v>
       </c>
       <c r="H18" t="n">
-        <v>1857.34</v>
+        <v>2132.62</v>
       </c>
     </row>
     <row r="19">
@@ -9093,26 +9093,26 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PeopleOnStreet_2560x1600_30_crop_150_qp30(anchor)</t>
+          <t>PeopleOnStreet_2560x1600_30_crop_150_qp32(anchor)</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>150</v>
       </c>
       <c r="D19" t="n">
-        <v>7376.712</v>
+        <v>5685.5024</v>
       </c>
       <c r="E19" t="n">
-        <v>34.195</v>
+        <v>32.9358</v>
       </c>
       <c r="F19" t="n">
-        <v>41.2266</v>
+        <v>40.575</v>
       </c>
       <c r="G19" t="n">
-        <v>41.9834</v>
+        <v>41.5138</v>
       </c>
       <c r="H19" t="n">
-        <v>1507.81</v>
+        <v>1500.72</v>
       </c>
     </row>
     <row r="20">
@@ -9121,26 +9121,26 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PeopleOnStreet_2560x1600_30_crop_150_qp35(anchor)</t>
+          <t>PeopleOnStreet_2560x1600_30_crop_150_qp38(anchor)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>150</v>
       </c>
       <c r="D20" t="n">
-        <v>3820.6128</v>
+        <v>2596.256</v>
       </c>
       <c r="E20" t="n">
-        <v>30.9957</v>
+        <v>29.1863</v>
       </c>
       <c r="F20" t="n">
-        <v>39.4002</v>
+        <v>38.5121</v>
       </c>
       <c r="G20" t="n">
-        <v>40.5784</v>
+        <v>39.8163</v>
       </c>
       <c r="H20" t="n">
-        <v>1044.79</v>
+        <v>984.795</v>
       </c>
     </row>
     <row r="21">
@@ -9149,26 +9149,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PeopleOnStreet_2560x1600_30_crop_150_qp40(anchor)</t>
+          <t>PeopleOnStreet_2560x1600_30_crop_150_qp45(anchor)</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>150</v>
       </c>
       <c r="D21" t="n">
-        <v>2007.968</v>
+        <v>985.2864</v>
       </c>
       <c r="E21" t="n">
-        <v>28.1015</v>
+        <v>25.4082</v>
       </c>
       <c r="F21" t="n">
-        <v>37.8187</v>
+        <v>37.0511</v>
       </c>
       <c r="G21" t="n">
-        <v>39.2527</v>
+        <v>38.5518</v>
       </c>
       <c r="H21" t="n">
-        <v>740.2719999999999</v>
+        <v>617.099</v>
       </c>
     </row>
     <row r="22">
@@ -9196,7 +9196,7 @@
         <v>42.2964</v>
       </c>
       <c r="H22" t="n">
-        <v>855.8919999999999</v>
+        <v>982.26</v>
       </c>
     </row>
     <row r="23">
@@ -9205,26 +9205,26 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Traffic_2560x1600_30_crop_150_qp30(anchor)</t>
+          <t>Traffic_2560x1600_30_crop_150_qp32(anchor)</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>150</v>
       </c>
       <c r="D23" t="n">
-        <v>2022.152</v>
+        <v>1495.5584</v>
       </c>
       <c r="E23" t="n">
-        <v>37.2466</v>
+        <v>36.1798</v>
       </c>
       <c r="F23" t="n">
-        <v>38.9543</v>
+        <v>38.4435</v>
       </c>
       <c r="G23" t="n">
-        <v>41.284</v>
+        <v>40.6806</v>
       </c>
       <c r="H23" t="n">
-        <v>666.623</v>
+        <v>668.3960000000001</v>
       </c>
     </row>
     <row r="24">
@@ -9233,26 +9233,26 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Traffic_2560x1600_30_crop_150_qp35(anchor)</t>
+          <t>Traffic_2560x1600_30_crop_150_qp38(anchor)</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>150</v>
       </c>
       <c r="D24" t="n">
-        <v>949.8432</v>
+        <v>622.744</v>
       </c>
       <c r="E24" t="n">
-        <v>34.5002</v>
+        <v>32.8849</v>
       </c>
       <c r="F24" t="n">
-        <v>37.6245</v>
+        <v>36.7735</v>
       </c>
       <c r="G24" t="n">
-        <v>39.781</v>
+        <v>38.868</v>
       </c>
       <c r="H24" t="n">
-        <v>467.845</v>
+        <v>456.251</v>
       </c>
     </row>
     <row r="25">
@@ -9261,26 +9261,26 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Traffic_2560x1600_30_crop_150_qp40(anchor)</t>
+          <t>Traffic_2560x1600_30_crop_150_qp45(anchor)</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>150</v>
       </c>
       <c r="D25" t="n">
-        <v>483.2064</v>
+        <v>247.776</v>
       </c>
       <c r="E25" t="n">
-        <v>31.9851</v>
+        <v>29.5585</v>
       </c>
       <c r="F25" t="n">
-        <v>36.2475</v>
+        <v>35.5068</v>
       </c>
       <c r="G25" t="n">
-        <v>38.3268</v>
+        <v>37.6863</v>
       </c>
       <c r="H25" t="n">
-        <v>349.62</v>
+        <v>303.009</v>
       </c>
     </row>
     <row r="26">
@@ -9308,7 +9308,7 @@
         <v>42.9632</v>
       </c>
       <c r="H26" t="n">
-        <v>2758.27</v>
+        <v>3176.87</v>
       </c>
     </row>
     <row r="27">
@@ -9317,26 +9317,26 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BasketballDrive_1920x1080_50_500_qp30(anchor)</t>
+          <t>BasketballDrive_1920x1080_50_500_qp32(anchor)</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>501</v>
       </c>
       <c r="D27" t="n">
-        <v>1616.9523</v>
+        <v>1194.5183</v>
       </c>
       <c r="E27" t="n">
-        <v>36.0431</v>
+        <v>35.2175</v>
       </c>
       <c r="F27" t="n">
-        <v>41.6948</v>
+        <v>41.1257</v>
       </c>
       <c r="G27" t="n">
-        <v>41.7157</v>
+        <v>40.8335</v>
       </c>
       <c r="H27" t="n">
-        <v>2100.34</v>
+        <v>2048.12</v>
       </c>
     </row>
     <row r="28">
@@ -9345,26 +9345,26 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BasketballDrive_1920x1080_50_500_qp35(anchor)</t>
+          <t>BasketballDrive_1920x1080_50_500_qp38(anchor)</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>501</v>
       </c>
       <c r="D28" t="n">
-        <v>760.2913</v>
+        <v>503.3456</v>
       </c>
       <c r="E28" t="n">
-        <v>33.8802</v>
+        <v>32.5881</v>
       </c>
       <c r="F28" t="n">
-        <v>40.0907</v>
+        <v>39.1353</v>
       </c>
       <c r="G28" t="n">
-        <v>39.3124</v>
+        <v>37.9916</v>
       </c>
       <c r="H28" t="n">
-        <v>1362.48</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="29">
@@ -9373,26 +9373,26 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BasketballDrive_1920x1080_50_500_qp40(anchor)</t>
+          <t>BasketballDrive_1920x1080_50_500_qp45(anchor)</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>501</v>
       </c>
       <c r="D29" t="n">
-        <v>397.3787</v>
+        <v>213.9028</v>
       </c>
       <c r="E29" t="n">
-        <v>31.8773</v>
+        <v>29.9184</v>
       </c>
       <c r="F29" t="n">
-        <v>38.5309</v>
+        <v>37.6099</v>
       </c>
       <c r="G29" t="n">
-        <v>37.253</v>
+        <v>36.0875</v>
       </c>
       <c r="H29" t="n">
-        <v>930.8480000000001</v>
+        <v>748.3380000000001</v>
       </c>
     </row>
     <row r="30">
@@ -9420,7 +9420,7 @@
         <v>43.3198</v>
       </c>
       <c r="H30" t="n">
-        <v>1855.33</v>
+        <v>2138.26</v>
       </c>
     </row>
     <row r="31">
@@ -9429,26 +9429,26 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BQTerrace_1920x1080_60_600_qp30(anchor)</t>
+          <t>BQTerrace_1920x1080_60_600_qp32(anchor)</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>601</v>
       </c>
       <c r="D31" t="n">
-        <v>893.5991</v>
+        <v>619.1129</v>
       </c>
       <c r="E31" t="n">
-        <v>33.8201</v>
+        <v>33.1808</v>
       </c>
       <c r="F31" t="n">
-        <v>40.0942</v>
+        <v>39.6112</v>
       </c>
       <c r="G31" t="n">
-        <v>42.7077</v>
+        <v>42.2967</v>
       </c>
       <c r="H31" t="n">
-        <v>1344.31</v>
+        <v>1292.89</v>
       </c>
     </row>
     <row r="32">
@@ -9457,26 +9457,26 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BQTerrace_1920x1080_60_600_qp35(anchor)</t>
+          <t>BQTerrace_1920x1080_60_600_qp38(anchor)</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>601</v>
       </c>
       <c r="D32" t="n">
-        <v>370.2449</v>
+        <v>233.857</v>
       </c>
       <c r="E32" t="n">
-        <v>32.0586</v>
+        <v>30.839</v>
       </c>
       <c r="F32" t="n">
-        <v>38.8832</v>
+        <v>38.1583</v>
       </c>
       <c r="G32" t="n">
-        <v>41.6648</v>
+        <v>41.0485</v>
       </c>
       <c r="H32" t="n">
-        <v>873.923</v>
+        <v>836.4060000000001</v>
       </c>
     </row>
     <row r="33">
@@ -9485,26 +9485,26 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BQTerrace_1920x1080_60_600_qp40(anchor)</t>
+          <t>BQTerrace_1920x1080_60_600_qp45(anchor)</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>601</v>
       </c>
       <c r="D33" t="n">
-        <v>175.1996</v>
+        <v>88.7756</v>
       </c>
       <c r="E33" t="n">
-        <v>30.0223</v>
+        <v>28.046</v>
       </c>
       <c r="F33" t="n">
-        <v>37.6253</v>
+        <v>36.9545</v>
       </c>
       <c r="G33" t="n">
-        <v>40.5815</v>
+        <v>39.9339</v>
       </c>
       <c r="H33" t="n">
-        <v>628.009</v>
+        <v>507.641</v>
       </c>
     </row>
     <row r="34">
@@ -9532,7 +9532,7 @@
         <v>42.1171</v>
       </c>
       <c r="H34" t="n">
-        <v>2205.96</v>
+        <v>2536.24</v>
       </c>
     </row>
     <row r="35">
@@ -9541,26 +9541,26 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Cactus_1920x1080_50_500_qp30(anchor)</t>
+          <t>Cactus_1920x1080_50_500_qp32(anchor)</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>500</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.0667</v>
+        <v>1178.1634</v>
       </c>
       <c r="E35" t="n">
-        <v>35.607</v>
+        <v>34.7774</v>
       </c>
       <c r="F35" t="n">
-        <v>38.6512</v>
+        <v>38.2655</v>
       </c>
       <c r="G35" t="n">
-        <v>41.1074</v>
+        <v>40.4203</v>
       </c>
       <c r="H35" t="n">
-        <v>1699.29</v>
+        <v>1671.57</v>
       </c>
     </row>
     <row r="36">
@@ -9569,26 +9569,26 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Cactus_1920x1080_50_500_qp35(anchor)</t>
+          <t>Cactus_1920x1080_50_500_qp38(anchor)</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>500</v>
       </c>
       <c r="D36" t="n">
-        <v>748.2148999999999</v>
+        <v>489.9595</v>
       </c>
       <c r="E36" t="n">
-        <v>33.3654</v>
+        <v>31.9666</v>
       </c>
       <c r="F36" t="n">
-        <v>37.5515</v>
+        <v>36.8576</v>
       </c>
       <c r="G36" t="n">
-        <v>39.2536</v>
+        <v>38.2263</v>
       </c>
       <c r="H36" t="n">
-        <v>1127.4</v>
+        <v>1052.22</v>
       </c>
     </row>
     <row r="37">
@@ -9597,26 +9597,26 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Cactus_1920x1080_50_500_qp40(anchor)</t>
+          <t>Cactus_1920x1080_50_500_qp45(anchor)</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>500</v>
       </c>
       <c r="D37" t="n">
-        <v>376.0032</v>
+        <v>193.3104</v>
       </c>
       <c r="E37" t="n">
-        <v>31.1426</v>
+        <v>29.1537</v>
       </c>
       <c r="F37" t="n">
-        <v>36.3102</v>
+        <v>35.5067</v>
       </c>
       <c r="G37" t="n">
-        <v>37.444</v>
+        <v>36.2595</v>
       </c>
       <c r="H37" t="n">
-        <v>789.05</v>
+        <v>645.53</v>
       </c>
     </row>
     <row r="38">
@@ -9644,7 +9644,7 @@
         <v>44.0592</v>
       </c>
       <c r="H38" t="n">
-        <v>1202.68</v>
+        <v>1377.75</v>
       </c>
     </row>
     <row r="39">
@@ -9653,26 +9653,26 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Kimono1_1920x1080_24_240_qp30(anchor)</t>
+          <t>Kimono1_1920x1080_24_240_qp32(anchor)</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>240</v>
       </c>
       <c r="D39" t="n">
-        <v>1778.488</v>
+        <v>1323.153</v>
       </c>
       <c r="E39" t="n">
-        <v>38.9936</v>
+        <v>38.0345</v>
       </c>
       <c r="F39" t="n">
-        <v>41.9251</v>
+        <v>41.4133</v>
       </c>
       <c r="G39" t="n">
-        <v>43.0413</v>
+        <v>42.4521</v>
       </c>
       <c r="H39" t="n">
-        <v>923.564</v>
+        <v>892.582</v>
       </c>
     </row>
     <row r="40">
@@ -9681,26 +9681,26 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Kimono1_1920x1080_24_240_qp35(anchor)</t>
+          <t>Kimono1_1920x1080_24_240_qp38(anchor)</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>240</v>
       </c>
       <c r="D40" t="n">
-        <v>837.566</v>
+        <v>545.301</v>
       </c>
       <c r="E40" t="n">
-        <v>36.4792</v>
+        <v>35.0175</v>
       </c>
       <c r="F40" t="n">
-        <v>40.6596</v>
+        <v>39.9477</v>
       </c>
       <c r="G40" t="n">
-        <v>41.6787</v>
+        <v>41.0045</v>
       </c>
       <c r="H40" t="n">
-        <v>599.437</v>
+        <v>553.154</v>
       </c>
     </row>
     <row r="41">
@@ -9709,26 +9709,26 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Kimono1_1920x1080_24_240_qp40(anchor)</t>
+          <t>Kimono1_1920x1080_24_240_qp45(anchor)</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>240</v>
       </c>
       <c r="D41" t="n">
-        <v>414.581</v>
+        <v>196.911</v>
       </c>
       <c r="E41" t="n">
-        <v>34.1346</v>
+        <v>31.8853</v>
       </c>
       <c r="F41" t="n">
-        <v>39.439</v>
+        <v>38.5311</v>
       </c>
       <c r="G41" t="n">
-        <v>40.5964</v>
+        <v>39.9582</v>
       </c>
       <c r="H41" t="n">
-        <v>413.952</v>
+        <v>324.344</v>
       </c>
     </row>
     <row r="42">
@@ -9756,7 +9756,7 @@
         <v>41.8785</v>
       </c>
       <c r="H42" t="n">
-        <v>1032</v>
+        <v>1111.11</v>
       </c>
     </row>
     <row r="43">
@@ -9765,26 +9765,26 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ParkScene_1920x1080_24_240_qp30(anchor)</t>
+          <t>ParkScene_1920x1080_24_240_qp32(anchor)</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>240</v>
       </c>
       <c r="D43" t="n">
-        <v>1854.239</v>
+        <v>1328.355</v>
       </c>
       <c r="E43" t="n">
-        <v>35.9122</v>
+        <v>34.8747</v>
       </c>
       <c r="F43" t="n">
-        <v>39.8746</v>
+        <v>39.2462</v>
       </c>
       <c r="G43" t="n">
-        <v>40.7364</v>
+        <v>40.1086</v>
       </c>
       <c r="H43" t="n">
-        <v>759.942</v>
+        <v>744.846</v>
       </c>
     </row>
     <row r="44">
@@ -9793,26 +9793,26 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ParkScene_1920x1080_24_240_qp35(anchor)</t>
+          <t>ParkScene_1920x1080_24_240_qp38(anchor)</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>240</v>
       </c>
       <c r="D44" t="n">
-        <v>789.273</v>
+        <v>482.894</v>
       </c>
       <c r="E44" t="n">
-        <v>33.2903</v>
+        <v>31.8536</v>
       </c>
       <c r="F44" t="n">
-        <v>38.313</v>
+        <v>37.3718</v>
       </c>
       <c r="G44" t="n">
-        <v>39.3154</v>
+        <v>38.6748</v>
       </c>
       <c r="H44" t="n">
-        <v>509.144</v>
+        <v>480.223</v>
       </c>
     </row>
     <row r="45">
@@ -9821,26 +9821,26 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ParkScene_1920x1080_24_240_qp40(anchor)</t>
+          <t>ParkScene_1920x1080_24_240_qp45(anchor)</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>240</v>
       </c>
       <c r="D45" t="n">
-        <v>354.152</v>
+        <v>159.842</v>
       </c>
       <c r="E45" t="n">
-        <v>31.009</v>
+        <v>29.0365</v>
       </c>
       <c r="F45" t="n">
-        <v>36.7684</v>
+        <v>35.9587</v>
       </c>
       <c r="G45" t="n">
-        <v>38.3195</v>
+        <v>37.8448</v>
       </c>
       <c r="H45" t="n">
-        <v>366.395</v>
+        <v>298.675</v>
       </c>
     </row>
     <row r="46">
@@ -9868,7 +9868,7 @@
         <v>41.9967</v>
       </c>
       <c r="H46" t="n">
-        <v>697.3910000000001</v>
+        <v>702.174</v>
       </c>
     </row>
     <row r="47">
@@ -9877,26 +9877,26 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BasketballDrill_832x480_50_500_qp30(anchor)</t>
+          <t>BasketballDrill_832x480_50_500_qp32(anchor)</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>501</v>
       </c>
       <c r="D47" t="n">
-        <v>634.5049</v>
+        <v>471.9487</v>
       </c>
       <c r="E47" t="n">
-        <v>36.6413</v>
+        <v>35.4083</v>
       </c>
       <c r="F47" t="n">
-        <v>40.3594</v>
+        <v>39.3995</v>
       </c>
       <c r="G47" t="n">
-        <v>40.5519</v>
+        <v>39.5044</v>
       </c>
       <c r="H47" t="n">
-        <v>505.404</v>
+        <v>497.413</v>
       </c>
     </row>
     <row r="48">
@@ -9905,26 +9905,26 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BasketballDrill_832x480_50_500_qp35(anchor)</t>
+          <t>BasketballDrill_832x480_50_500_qp38(anchor)</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>501</v>
       </c>
       <c r="D48" t="n">
-        <v>303.2125</v>
+        <v>200.6074</v>
       </c>
       <c r="E48" t="n">
-        <v>33.6387</v>
+        <v>32.0291</v>
       </c>
       <c r="F48" t="n">
-        <v>38.0867</v>
+        <v>36.8625</v>
       </c>
       <c r="G48" t="n">
-        <v>38.0118</v>
+        <v>36.6286</v>
       </c>
       <c r="H48" t="n">
-        <v>346.542</v>
+        <v>322.763</v>
       </c>
     </row>
     <row r="49">
@@ -9933,26 +9933,26 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BasketballDrill_832x480_50_500_qp40(anchor)</t>
+          <t>BasketballDrill_832x480_50_500_qp45(anchor)</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>501</v>
       </c>
       <c r="D49" t="n">
-        <v>156.8263</v>
+        <v>81.60290000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>31.1211</v>
+        <v>29.0459</v>
       </c>
       <c r="F49" t="n">
-        <v>36.1442</v>
+        <v>34.8306</v>
       </c>
       <c r="G49" t="n">
-        <v>35.8214</v>
+        <v>34.2211</v>
       </c>
       <c r="H49" t="n">
-        <v>243.384</v>
+        <v>190.602</v>
       </c>
     </row>
     <row r="50">
@@ -9980,7 +9980,7 @@
         <v>43.5245</v>
       </c>
       <c r="H50" t="n">
-        <v>548.23</v>
+        <v>626.016</v>
       </c>
     </row>
     <row r="51">
@@ -9989,26 +9989,26 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BQMall_832x480_60_600_qp30(anchor)</t>
+          <t>BQMall_832x480_60_600_qp32(anchor)</t>
         </is>
       </c>
       <c r="C51" t="n">
         <v>601</v>
       </c>
       <c r="D51" t="n">
-        <v>488.0745</v>
+        <v>370.0101</v>
       </c>
       <c r="E51" t="n">
-        <v>36.0175</v>
+        <v>34.8942</v>
       </c>
       <c r="F51" t="n">
-        <v>41.1418</v>
+        <v>40.4193</v>
       </c>
       <c r="G51" t="n">
-        <v>42.2176</v>
+        <v>41.349</v>
       </c>
       <c r="H51" t="n">
-        <v>437.361</v>
+        <v>435.149</v>
       </c>
     </row>
     <row r="52">
@@ -10017,26 +10017,26 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BQMall_832x480_60_600_qp35(anchor)</t>
+          <t>BQMall_832x480_60_600_qp38(anchor)</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>601</v>
       </c>
       <c r="D52" t="n">
-        <v>240.6038</v>
+        <v>160.7054</v>
       </c>
       <c r="E52" t="n">
-        <v>33.1449</v>
+        <v>31.5097</v>
       </c>
       <c r="F52" t="n">
-        <v>39.2604</v>
+        <v>38.1074</v>
       </c>
       <c r="G52" t="n">
-        <v>40.0431</v>
+        <v>38.7176</v>
       </c>
       <c r="H52" t="n">
-        <v>302.412</v>
+        <v>287.518</v>
       </c>
     </row>
     <row r="53">
@@ -10045,26 +10045,26 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BQMall_832x480_60_600_qp40(anchor)</t>
+          <t>BQMall_832x480_60_600_qp45(anchor)</t>
         </is>
       </c>
       <c r="C53" t="n">
         <v>601</v>
       </c>
       <c r="D53" t="n">
-        <v>124.3523</v>
+        <v>62.5394</v>
       </c>
       <c r="E53" t="n">
-        <v>30.5154</v>
+        <v>28.0657</v>
       </c>
       <c r="F53" t="n">
-        <v>37.3151</v>
+        <v>36.0282</v>
       </c>
       <c r="G53" t="n">
-        <v>37.8369</v>
+        <v>36.4497</v>
       </c>
       <c r="H53" t="n">
-        <v>217.848</v>
+        <v>177.745</v>
       </c>
     </row>
     <row r="54">
@@ -10092,7 +10092,7 @@
         <v>39.6134</v>
       </c>
       <c r="H54" t="n">
-        <v>578.492</v>
+        <v>661.9930000000001</v>
       </c>
     </row>
     <row r="55">
@@ -10101,26 +10101,26 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PartyScene_832x480_50_500_qp30(anchor)</t>
+          <t>PartyScene_832x480_50_500_qp32(anchor)</t>
         </is>
       </c>
       <c r="C55" t="n">
         <v>501</v>
       </c>
       <c r="D55" t="n">
-        <v>804.0493</v>
+        <v>577.8711</v>
       </c>
       <c r="E55" t="n">
-        <v>31.8711</v>
+        <v>30.6355</v>
       </c>
       <c r="F55" t="n">
-        <v>37.3694</v>
+        <v>36.6289</v>
       </c>
       <c r="G55" t="n">
-        <v>38.2865</v>
+        <v>37.4873</v>
       </c>
       <c r="H55" t="n">
-        <v>455.136</v>
+        <v>444.085</v>
       </c>
     </row>
     <row r="56">
@@ -10129,26 +10129,26 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PartyScene_832x480_50_500_qp35(anchor)</t>
+          <t>PartyScene_832x480_50_500_qp38(anchor)</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>501</v>
       </c>
       <c r="D56" t="n">
-        <v>341.0319</v>
+        <v>203.5296</v>
       </c>
       <c r="E56" t="n">
-        <v>28.8178</v>
+        <v>27.1619</v>
       </c>
       <c r="F56" t="n">
-        <v>35.5156</v>
+        <v>34.4325</v>
       </c>
       <c r="G56" t="n">
-        <v>36.258</v>
+        <v>35.0864</v>
       </c>
       <c r="H56" t="n">
-        <v>299.073</v>
+        <v>274.71</v>
       </c>
     </row>
     <row r="57">
@@ -10157,26 +10157,26 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PartyScene_832x480_50_500_qp40(anchor)</t>
+          <t>PartyScene_832x480_50_500_qp45(anchor)</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>501</v>
       </c>
       <c r="D57" t="n">
-        <v>143.8295</v>
+        <v>56.5624</v>
       </c>
       <c r="E57" t="n">
-        <v>26.151</v>
+        <v>23.9636</v>
       </c>
       <c r="F57" t="n">
-        <v>33.7075</v>
+        <v>32.6983</v>
       </c>
       <c r="G57" t="n">
-        <v>34.3213</v>
+        <v>33.3212</v>
       </c>
       <c r="H57" t="n">
-        <v>205.516</v>
+        <v>161.823</v>
       </c>
     </row>
     <row r="58">
@@ -10204,7 +10204,7 @@
         <v>40.8025</v>
       </c>
       <c r="H58" t="n">
-        <v>509.088</v>
+        <v>582.73</v>
       </c>
     </row>
     <row r="59">
@@ -10213,26 +10213,26 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>RaceHorses_832x480_30_300_qp30(anchor)</t>
+          <t>RaceHorses_832x480_30_300_qp32(anchor)</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>300</v>
       </c>
       <c r="D59" t="n">
-        <v>1095.8792</v>
+        <v>801.3008</v>
       </c>
       <c r="E59" t="n">
-        <v>33.8756</v>
+        <v>32.7048</v>
       </c>
       <c r="F59" t="n">
-        <v>37.7102</v>
+        <v>36.907</v>
       </c>
       <c r="G59" t="n">
-        <v>39.531</v>
+        <v>38.7244</v>
       </c>
       <c r="H59" t="n">
-        <v>408.291</v>
+        <v>403.494</v>
       </c>
     </row>
     <row r="60">
@@ -10241,26 +10241,26 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>RaceHorses_832x480_30_300_qp35(anchor)</t>
+          <t>RaceHorses_832x480_30_300_qp38(anchor)</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>300</v>
       </c>
       <c r="D60" t="n">
-        <v>489.2016</v>
+        <v>306.192</v>
       </c>
       <c r="E60" t="n">
-        <v>30.9183</v>
+        <v>29.3391</v>
       </c>
       <c r="F60" t="n">
-        <v>35.6925</v>
+        <v>34.6049</v>
       </c>
       <c r="G60" t="n">
-        <v>37.4351</v>
+        <v>36.215</v>
       </c>
       <c r="H60" t="n">
-        <v>275.771</v>
+        <v>253.494</v>
       </c>
     </row>
     <row r="61">
@@ -10269,26 +10269,26 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>RaceHorses_832x480_30_300_qp40(anchor)</t>
+          <t>RaceHorses_832x480_30_300_qp45(anchor)</t>
         </is>
       </c>
       <c r="C61" t="n">
         <v>300</v>
       </c>
       <c r="D61" t="n">
-        <v>225.9416</v>
+        <v>101.9872</v>
       </c>
       <c r="E61" t="n">
-        <v>28.5189</v>
+        <v>26.5564</v>
       </c>
       <c r="F61" t="n">
-        <v>33.9362</v>
+        <v>32.8205</v>
       </c>
       <c r="G61" t="n">
-        <v>35.4358</v>
+        <v>34.0255</v>
       </c>
       <c r="H61" t="n">
-        <v>185.647</v>
+        <v>137.946</v>
       </c>
     </row>
     <row r="62">
@@ -10316,7 +10316,7 @@
         <v>41.4224</v>
       </c>
       <c r="H62" t="n">
-        <v>194.693</v>
+        <v>224.077</v>
       </c>
     </row>
     <row r="63">
@@ -10325,26 +10325,26 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BasketballPass_416x240_50_500_qp30(anchor)</t>
+          <t>BasketballPass_416x240_50_500_qp32(anchor)</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>501</v>
       </c>
       <c r="D63" t="n">
-        <v>355.8156</v>
+        <v>265.8596</v>
       </c>
       <c r="E63" t="n">
-        <v>36.2459</v>
+        <v>34.8506</v>
       </c>
       <c r="F63" t="n">
-        <v>41.1782</v>
+        <v>40.3066</v>
       </c>
       <c r="G63" t="n">
-        <v>39.7141</v>
+        <v>38.6363</v>
       </c>
       <c r="H63" t="n">
-        <v>164.586</v>
+        <v>166.252</v>
       </c>
     </row>
     <row r="64">
@@ -10353,26 +10353,26 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BasketballPass_416x240_50_500_qp35(anchor)</t>
+          <t>BasketballPass_416x240_50_500_qp38(anchor)</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>501</v>
       </c>
       <c r="D64" t="n">
-        <v>170.3401</v>
+        <v>110.868</v>
       </c>
       <c r="E64" t="n">
-        <v>32.8928</v>
+        <v>31.149</v>
       </c>
       <c r="F64" t="n">
-        <v>38.8501</v>
+        <v>37.5889</v>
       </c>
       <c r="G64" t="n">
-        <v>36.9461</v>
+        <v>35.4154</v>
       </c>
       <c r="H64" t="n">
-        <v>117.367</v>
+        <v>109.244</v>
       </c>
     </row>
     <row r="65">
@@ -10381,26 +10381,26 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BasketballPass_416x240_50_500_qp40(anchor)</t>
+          <t>BasketballPass_416x240_50_500_qp45(anchor)</t>
         </is>
       </c>
       <c r="C65" t="n">
         <v>501</v>
       </c>
       <c r="D65" t="n">
-        <v>84.8819</v>
+        <v>42.6084</v>
       </c>
       <c r="E65" t="n">
-        <v>30.1528</v>
+        <v>27.7997</v>
       </c>
       <c r="F65" t="n">
-        <v>36.7332</v>
+        <v>37.3432</v>
       </c>
       <c r="G65" t="n">
-        <v>34.5203</v>
+        <v>34.8971</v>
       </c>
       <c r="H65" t="n">
-        <v>82.00399999999999</v>
+        <v>64.706</v>
       </c>
     </row>
     <row r="66">
@@ -10428,7 +10428,7 @@
         <v>40.2387</v>
       </c>
       <c r="H66" t="n">
-        <v>148.028</v>
+        <v>170.037</v>
       </c>
     </row>
     <row r="67">
@@ -10437,26 +10437,26 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BlowingBubbles_416x240_50_500_qp30(anchor)</t>
+          <t>BlowingBubbles_416x240_50_500_qp32(anchor)</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>501</v>
       </c>
       <c r="D67" t="n">
-        <v>261.8587</v>
+        <v>190.376</v>
       </c>
       <c r="E67" t="n">
-        <v>33.1628</v>
+        <v>31.9211</v>
       </c>
       <c r="F67" t="n">
-        <v>37.9065</v>
+        <v>37.0123</v>
       </c>
       <c r="G67" t="n">
-        <v>38.8274</v>
+        <v>37.8859</v>
       </c>
       <c r="H67" t="n">
-        <v>118.031</v>
+        <v>115.554</v>
       </c>
     </row>
     <row r="68">
@@ -10465,26 +10465,26 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BlowingBubbles_416x240_50_500_qp35(anchor)</t>
+          <t>BlowingBubbles_416x240_50_500_qp38(anchor)</t>
         </is>
       </c>
       <c r="C68" t="n">
         <v>501</v>
       </c>
       <c r="D68" t="n">
-        <v>114.321</v>
+        <v>69.57170000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>30.0804</v>
+        <v>28.4267</v>
       </c>
       <c r="F68" t="n">
-        <v>35.757</v>
+        <v>34.5165</v>
       </c>
       <c r="G68" t="n">
-        <v>36.5659</v>
+        <v>35.3304</v>
       </c>
       <c r="H68" t="n">
-        <v>78.55800000000001</v>
+        <v>71.199</v>
       </c>
     </row>
     <row r="69">
@@ -10493,26 +10493,26 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BlowingBubbles_416x240_50_500_qp40(anchor)</t>
+          <t>BlowingBubbles_416x240_50_500_qp45(anchor)</t>
         </is>
       </c>
       <c r="C69" t="n">
         <v>501</v>
       </c>
       <c r="D69" t="n">
-        <v>49.3988</v>
+        <v>21.6613</v>
       </c>
       <c r="E69" t="n">
-        <v>27.3893</v>
+        <v>25.0999</v>
       </c>
       <c r="F69" t="n">
-        <v>33.725</v>
+        <v>34.2857</v>
       </c>
       <c r="G69" t="n">
-        <v>34.5785</v>
+        <v>35.0885</v>
       </c>
       <c r="H69" t="n">
-        <v>52.16</v>
+        <v>41.898</v>
       </c>
     </row>
     <row r="70">
@@ -10540,7 +10540,7 @@
         <v>42.6452</v>
       </c>
       <c r="H70" t="n">
-        <v>118.21</v>
+        <v>136.349</v>
       </c>
     </row>
     <row r="71">
@@ -10549,26 +10549,26 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BQSquare_416x240_60_600_qp30(anchor)</t>
+          <t>BQSquare_416x240_60_600_qp32(anchor)</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>601</v>
       </c>
       <c r="D71" t="n">
-        <v>150.9241</v>
+        <v>109.8972</v>
       </c>
       <c r="E71" t="n">
-        <v>32.5251</v>
+        <v>31.405</v>
       </c>
       <c r="F71" t="n">
-        <v>40.3289</v>
+        <v>39.647</v>
       </c>
       <c r="G71" t="n">
-        <v>41.5675</v>
+        <v>40.8539</v>
       </c>
       <c r="H71" t="n">
-        <v>89.708</v>
+        <v>87.56999999999999</v>
       </c>
     </row>
     <row r="72">
@@ -10577,26 +10577,26 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BQSquare_416x240_60_600_qp35(anchor)</t>
+          <t>BQSquare_416x240_60_600_qp38(anchor)</t>
         </is>
       </c>
       <c r="C72" t="n">
         <v>601</v>
       </c>
       <c r="D72" t="n">
-        <v>69.30410000000001</v>
+        <v>46.1183</v>
       </c>
       <c r="E72" t="n">
-        <v>29.7417</v>
+        <v>28.1471</v>
       </c>
       <c r="F72" t="n">
-        <v>38.7642</v>
+        <v>38.0279</v>
       </c>
       <c r="G72" t="n">
-        <v>39.7936</v>
+        <v>38.8151</v>
       </c>
       <c r="H72" t="n">
-        <v>59.397</v>
+        <v>55.653</v>
       </c>
     </row>
     <row r="73">
@@ -10605,26 +10605,26 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BQSquare_416x240_60_600_qp40(anchor)</t>
+          <t>BQSquare_416x240_60_600_qp45(anchor)</t>
         </is>
       </c>
       <c r="C73" t="n">
         <v>601</v>
       </c>
       <c r="D73" t="n">
-        <v>35.0328</v>
+        <v>18.3414</v>
       </c>
       <c r="E73" t="n">
-        <v>27.0451</v>
+        <v>24.4883</v>
       </c>
       <c r="F73" t="n">
-        <v>37.5789</v>
+        <v>38.3883</v>
       </c>
       <c r="G73" t="n">
-        <v>38.1231</v>
+        <v>38.7577</v>
       </c>
       <c r="H73" t="n">
-        <v>42.2</v>
+        <v>37.097</v>
       </c>
     </row>
     <row r="74">
@@ -10652,7 +10652,7 @@
         <v>40.7182</v>
       </c>
       <c r="H74" t="n">
-        <v>137.245</v>
+        <v>157.425</v>
       </c>
     </row>
     <row r="75">
@@ -10661,26 +10661,26 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>RaceHorses_416x240_30_300_qp30(anchor)</t>
+          <t>RaceHorses_416x240_30_300_qp32(anchor)</t>
         </is>
       </c>
       <c r="C75" t="n">
         <v>300</v>
       </c>
       <c r="D75" t="n">
-        <v>410.1952</v>
+        <v>304.3672</v>
       </c>
       <c r="E75" t="n">
-        <v>34.3646</v>
+        <v>32.9814</v>
       </c>
       <c r="F75" t="n">
-        <v>37.9263</v>
+        <v>37.0269</v>
       </c>
       <c r="G75" t="n">
-        <v>39.2396</v>
+        <v>38.2917</v>
       </c>
       <c r="H75" t="n">
-        <v>114.206</v>
+        <v>114.739</v>
       </c>
     </row>
     <row r="76">
@@ -10689,26 +10689,26 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>RaceHorses_416x240_30_300_qp35(anchor)</t>
+          <t>RaceHorses_416x240_30_300_qp38(anchor)</t>
         </is>
       </c>
       <c r="C76" t="n">
         <v>300</v>
       </c>
       <c r="D76" t="n">
-        <v>190.492</v>
+        <v>121.8472</v>
       </c>
       <c r="E76" t="n">
-        <v>31.0158</v>
+        <v>29.3513</v>
       </c>
       <c r="F76" t="n">
-        <v>35.6975</v>
+        <v>34.4225</v>
       </c>
       <c r="G76" t="n">
-        <v>36.8489</v>
+        <v>35.4764</v>
       </c>
       <c r="H76" t="n">
-        <v>79.48699999999999</v>
+        <v>72.187</v>
       </c>
     </row>
     <row r="77">
@@ -10717,26 +10717,26 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>RaceHorses_416x240_30_300_qp40(anchor)</t>
+          <t>RaceHorses_416x240_30_300_qp45(anchor)</t>
         </is>
       </c>
       <c r="C77" t="n">
         <v>300</v>
       </c>
       <c r="D77" t="n">
-        <v>91.452</v>
+        <v>43.7768</v>
       </c>
       <c r="E77" t="n">
-        <v>28.4607</v>
+        <v>26.3272</v>
       </c>
       <c r="F77" t="n">
-        <v>33.684</v>
+        <v>32.2317</v>
       </c>
       <c r="G77" t="n">
-        <v>34.6436</v>
+        <v>33.1005</v>
       </c>
       <c r="H77" t="n">
-        <v>52.73699999999999</v>
+        <v>39.273</v>
       </c>
     </row>
     <row r="78">
@@ -10764,7 +10764,7 @@
         <v>48.0293</v>
       </c>
       <c r="H78" t="n">
-        <v>657.1460000000001</v>
+        <v>745.747</v>
       </c>
     </row>
     <row r="79">
@@ -10773,26 +10773,26 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>FourPeople_1280x720_60_600_qp30(anchor)</t>
+          <t>FourPeople_1280x720_60_600_qp32(anchor)</t>
         </is>
       </c>
       <c r="C79" t="n">
         <v>600</v>
       </c>
       <c r="D79" t="n">
-        <v>375.0084</v>
+        <v>289.3412</v>
       </c>
       <c r="E79" t="n">
-        <v>40.6789</v>
+        <v>39.7596</v>
       </c>
       <c r="F79" t="n">
-        <v>45.589</v>
+        <v>44.8454</v>
       </c>
       <c r="G79" t="n">
-        <v>46.9702</v>
+        <v>46.2133</v>
       </c>
       <c r="H79" t="n">
-        <v>494.351</v>
+        <v>497.839</v>
       </c>
     </row>
     <row r="80">
@@ -10801,26 +10801,26 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>FourPeople_1280x720_60_600_qp35(anchor)</t>
+          <t>FourPeople_1280x720_60_600_qp38(anchor)</t>
         </is>
       </c>
       <c r="C80" t="n">
         <v>600</v>
       </c>
       <c r="D80" t="n">
-        <v>197.0784</v>
+        <v>137.9332</v>
       </c>
       <c r="E80" t="n">
-        <v>38.1947</v>
+        <v>36.537</v>
       </c>
       <c r="F80" t="n">
-        <v>43.7566</v>
+        <v>42.6059</v>
       </c>
       <c r="G80" t="n">
-        <v>45.0523</v>
+        <v>43.768</v>
       </c>
       <c r="H80" t="n">
-        <v>351.093</v>
+        <v>343.338</v>
       </c>
     </row>
     <row r="81">
@@ -10829,26 +10829,26 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>FourPeople_1280x720_60_600_qp40(anchor)</t>
+          <t>FourPeople_1280x720_60_600_qp45(anchor)</t>
         </is>
       </c>
       <c r="C81" t="n">
         <v>600</v>
       </c>
       <c r="D81" t="n">
-        <v>111.9432</v>
+        <v>65.6896</v>
       </c>
       <c r="E81" t="n">
-        <v>35.5279</v>
+        <v>33.1763</v>
       </c>
       <c r="F81" t="n">
-        <v>41.8945</v>
+        <v>40.5654</v>
       </c>
       <c r="G81" t="n">
-        <v>43.0511</v>
+        <v>41.5907</v>
       </c>
       <c r="H81" t="n">
-        <v>266.115</v>
+        <v>231.217</v>
       </c>
     </row>
     <row r="82">
@@ -10876,7 +10876,7 @@
         <v>49.2</v>
       </c>
       <c r="H82" t="n">
-        <v>562.51</v>
+        <v>638.246</v>
       </c>
     </row>
     <row r="83">
@@ -10885,26 +10885,26 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Johnny_1280x720_60_600_qp30(anchor)</t>
+          <t>Johnny_1280x720_60_600_qp32(anchor)</t>
         </is>
       </c>
       <c r="C83" t="n">
         <v>600</v>
       </c>
       <c r="D83" t="n">
-        <v>201.8808</v>
+        <v>149.51</v>
       </c>
       <c r="E83" t="n">
-        <v>41.6603</v>
+        <v>41.0202</v>
       </c>
       <c r="F83" t="n">
-        <v>47.5952</v>
+        <v>46.9655</v>
       </c>
       <c r="G83" t="n">
-        <v>48.3899</v>
+        <v>47.7568</v>
       </c>
       <c r="H83" t="n">
-        <v>399.804</v>
+        <v>397.793</v>
       </c>
     </row>
     <row r="84">
@@ -10913,26 +10913,26 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Johnny_1280x720_60_600_qp35(anchor)</t>
+          <t>Johnny_1280x720_60_600_qp38(anchor)</t>
         </is>
       </c>
       <c r="C84" t="n">
         <v>600</v>
       </c>
       <c r="D84" t="n">
-        <v>98.8612</v>
+        <v>68.5476</v>
       </c>
       <c r="E84" t="n">
-        <v>39.882</v>
+        <v>38.6354</v>
       </c>
       <c r="F84" t="n">
-        <v>45.8933</v>
+        <v>44.694</v>
       </c>
       <c r="G84" t="n">
-        <v>46.6636</v>
+        <v>45.4848</v>
       </c>
       <c r="H84" t="n">
-        <v>268.882</v>
+        <v>259.783</v>
       </c>
     </row>
     <row r="85">
@@ -10941,26 +10941,26 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Johnny_1280x720_60_600_qp40(anchor)</t>
+          <t>Johnny_1280x720_60_600_qp45(anchor)</t>
         </is>
       </c>
       <c r="C85" t="n">
         <v>600</v>
       </c>
       <c r="D85" t="n">
-        <v>54.9268</v>
+        <v>33.4524</v>
       </c>
       <c r="E85" t="n">
-        <v>37.7771</v>
+        <v>35.8452</v>
       </c>
       <c r="F85" t="n">
-        <v>43.9263</v>
+        <v>42.5175</v>
       </c>
       <c r="G85" t="n">
-        <v>44.6089</v>
+        <v>43.3303</v>
       </c>
       <c r="H85" t="n">
-        <v>188.585</v>
+        <v>161.72</v>
       </c>
     </row>
     <row r="86">
@@ -10988,7 +10988,7 @@
         <v>48.5403</v>
       </c>
       <c r="H86" t="n">
-        <v>724.758</v>
+        <v>823.725</v>
       </c>
     </row>
     <row r="87">
@@ -10997,26 +10997,26 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>KristenAndSara_1280x720_60_600_qp30(anchor)</t>
+          <t>KristenAndSara_1280x720_60_600_qp32(anchor)</t>
         </is>
       </c>
       <c r="C87" t="n">
         <v>600</v>
       </c>
       <c r="D87" t="n">
-        <v>339.6588</v>
+        <v>252.496</v>
       </c>
       <c r="E87" t="n">
-        <v>41.6233</v>
+        <v>40.8247</v>
       </c>
       <c r="F87" t="n">
-        <v>46.5742</v>
+        <v>45.8834</v>
       </c>
       <c r="G87" t="n">
-        <v>47.6099</v>
+        <v>46.9324</v>
       </c>
       <c r="H87" t="n">
-        <v>522.9159999999999</v>
+        <v>520.476</v>
       </c>
     </row>
     <row r="88">
@@ -11025,26 +11025,26 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>KristenAndSara_1280x720_60_600_qp35(anchor)</t>
+          <t>KristenAndSara_1280x720_60_600_qp38(anchor)</t>
         </is>
       </c>
       <c r="C88" t="n">
         <v>600</v>
       </c>
       <c r="D88" t="n">
-        <v>163.8372</v>
+        <v>112.3028</v>
       </c>
       <c r="E88" t="n">
-        <v>39.426</v>
+        <v>37.9578</v>
       </c>
       <c r="F88" t="n">
-        <v>44.7523</v>
+        <v>43.6896</v>
       </c>
       <c r="G88" t="n">
-        <v>45.8453</v>
+        <v>44.7151</v>
       </c>
       <c r="H88" t="n">
-        <v>353.313</v>
+        <v>341.481</v>
       </c>
     </row>
     <row r="89">
@@ -11053,26 +11053,26 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>KristenAndSara_1280x720_60_600_qp40(anchor)</t>
+          <t>KristenAndSara_1280x720_60_600_qp45(anchor)</t>
         </is>
       </c>
       <c r="C89" t="n">
         <v>600</v>
       </c>
       <c r="D89" t="n">
-        <v>88.7016</v>
+        <v>49.892</v>
       </c>
       <c r="E89" t="n">
-        <v>37.0134</v>
+        <v>34.9823</v>
       </c>
       <c r="F89" t="n">
-        <v>42.9493</v>
+        <v>41.5255</v>
       </c>
       <c r="G89" t="n">
-        <v>44.0341</v>
+        <v>42.5432</v>
       </c>
       <c r="H89" t="n">
-        <v>255.766</v>
+        <v>205.602</v>
       </c>
     </row>
     <row r="90">
@@ -11100,7 +11100,7 @@
         <v>41.3324</v>
       </c>
       <c r="H90" t="n">
-        <v>605.933</v>
+        <v>669.4839999999999</v>
       </c>
     </row>
     <row r="91">
@@ -11109,26 +11109,26 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>BasketballDrillText_832x480_50_500_qp30(anchor)</t>
+          <t>BasketballDrillText_832x480_50_500_qp32(anchor)</t>
         </is>
       </c>
       <c r="C91" t="n">
         <v>501</v>
       </c>
       <c r="D91" t="n">
-        <v>628.845</v>
+        <v>472.3875</v>
       </c>
       <c r="E91" t="n">
-        <v>36.234</v>
+        <v>34.9713</v>
       </c>
       <c r="F91" t="n">
-        <v>39.4809</v>
+        <v>38.4702</v>
       </c>
       <c r="G91" t="n">
-        <v>39.675</v>
+        <v>38.6191</v>
       </c>
       <c r="H91" t="n">
-        <v>483.398</v>
+        <v>475.191</v>
       </c>
     </row>
     <row r="92">
@@ -11137,26 +11137,26 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>BasketballDrillText_832x480_50_500_qp35(anchor)</t>
+          <t>BasketballDrillText_832x480_50_500_qp38(anchor)</t>
         </is>
       </c>
       <c r="C92" t="n">
         <v>501</v>
       </c>
       <c r="D92" t="n">
-        <v>305.7365</v>
+        <v>203.1195</v>
       </c>
       <c r="E92" t="n">
-        <v>33.1334</v>
+        <v>31.4448</v>
       </c>
       <c r="F92" t="n">
-        <v>37.051</v>
+        <v>35.6955</v>
       </c>
       <c r="G92" t="n">
-        <v>37.0433</v>
+        <v>35.5547</v>
       </c>
       <c r="H92" t="n">
-        <v>330.89</v>
+        <v>311.284</v>
       </c>
     </row>
     <row r="93">
@@ -11165,26 +11165,26 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>BasketballDrillText_832x480_50_500_qp40(anchor)</t>
+          <t>BasketballDrillText_832x480_50_500_qp45(anchor)</t>
         </is>
       </c>
       <c r="C93" t="n">
         <v>501</v>
       </c>
       <c r="D93" t="n">
-        <v>157.4889</v>
+        <v>81.1478</v>
       </c>
       <c r="E93" t="n">
-        <v>30.453</v>
+        <v>28.2024</v>
       </c>
       <c r="F93" t="n">
-        <v>34.8941</v>
+        <v>33.5335</v>
       </c>
       <c r="G93" t="n">
-        <v>34.6851</v>
+        <v>33.1114</v>
       </c>
       <c r="H93" t="n">
-        <v>233.535</v>
+        <v>183.15</v>
       </c>
     </row>
     <row r="94">
@@ -11193,7 +11193,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>﻿ChinaSpeed_1024x768_30_300_qp27(anchor)</t>
+          <t>﻿ChinaSpeed_1024x768_30_500_qp27(anchor)</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -11212,7 +11212,7 @@
         <v>42.7698</v>
       </c>
       <c r="H94" t="n">
-        <v>1204.81</v>
+        <v>1380.27</v>
       </c>
     </row>
     <row r="95">
@@ -11221,26 +11221,26 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ChinaSpeed_1024x768_30_300_qp30(anchor)</t>
+          <t>ChinaSpeed_1024x768_30_500_qp32(anchor)</t>
         </is>
       </c>
       <c r="C95" t="n">
         <v>500</v>
       </c>
       <c r="D95" t="n">
-        <v>1574.2546</v>
+        <v>1122.8136</v>
       </c>
       <c r="E95" t="n">
-        <v>35.6632</v>
+        <v>34.169</v>
       </c>
       <c r="F95" t="n">
-        <v>42.003</v>
+        <v>41.1179</v>
       </c>
       <c r="G95" t="n">
-        <v>40.9001</v>
+        <v>39.7357</v>
       </c>
       <c r="H95" t="n">
-        <v>965.602</v>
+        <v>932.3539999999999</v>
       </c>
     </row>
     <row r="96">
@@ -11249,26 +11249,26 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ChinaSpeed_1024x768_30_300_qp35(anchor)</t>
+          <t>ChinaSpeed_1024x768_30_500_qp38(anchor)</t>
         </is>
       </c>
       <c r="C96" t="n">
         <v>500</v>
       </c>
       <c r="D96" t="n">
-        <v>653.1935999999999</v>
+        <v>388.4544</v>
       </c>
       <c r="E96" t="n">
-        <v>32.053</v>
+        <v>30.2294</v>
       </c>
       <c r="F96" t="n">
-        <v>39.7002</v>
+        <v>38.4251</v>
       </c>
       <c r="G96" t="n">
-        <v>38.0473</v>
+        <v>36.7046</v>
       </c>
       <c r="H96" t="n">
-        <v>659.373</v>
+        <v>568.5980000000001</v>
       </c>
     </row>
     <row r="97">
@@ -11277,26 +11277,26 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ChinaSpeed_1024x768_30_300_qp40(anchor)</t>
+          <t>ChinaSpeed_1024x768_30_500_qp45(anchor)</t>
         </is>
       </c>
       <c r="C97" t="n">
         <v>500</v>
       </c>
       <c r="D97" t="n">
-        <v>276.2923</v>
+        <v>120.2525</v>
       </c>
       <c r="E97" t="n">
-        <v>29.172</v>
+        <v>27.2153</v>
       </c>
       <c r="F97" t="n">
-        <v>37.5825</v>
+        <v>36.1769</v>
       </c>
       <c r="G97" t="n">
-        <v>35.6925</v>
+        <v>34.7849</v>
       </c>
       <c r="H97" t="n">
-        <v>445.979</v>
+        <v>310.159</v>
       </c>
     </row>
     <row r="98">
@@ -11324,7 +11324,7 @@
         <v>41.046</v>
       </c>
       <c r="H98" t="n">
-        <v>167.27</v>
+        <v>178.602</v>
       </c>
     </row>
     <row r="99">
@@ -11333,26 +11333,26 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>SlideEditing_1280x720_30_300_qp30(anchor)</t>
+          <t>SlideEditing_1280x720_30_300_qp32(anchor)</t>
         </is>
       </c>
       <c r="C99" t="n">
         <v>300</v>
       </c>
       <c r="D99" t="n">
-        <v>369.54</v>
+        <v>321.2896</v>
       </c>
       <c r="E99" t="n">
-        <v>36.9293</v>
+        <v>34.9323</v>
       </c>
       <c r="F99" t="n">
-        <v>38.9575</v>
+        <v>38.4281</v>
       </c>
       <c r="G99" t="n">
-        <v>40.0419</v>
+        <v>39.5126</v>
       </c>
       <c r="H99" t="n">
-        <v>160.153</v>
+        <v>157.153</v>
       </c>
     </row>
     <row r="100">
@@ -11361,26 +11361,26 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SlideEditing_1280x720_30_300_qp35(anchor)</t>
+          <t>SlideEditing_1280x720_30_300_qp38(anchor)</t>
         </is>
       </c>
       <c r="C100" t="n">
         <v>300</v>
       </c>
       <c r="D100" t="n">
-        <v>248.0816</v>
+        <v>186.1456</v>
       </c>
       <c r="E100" t="n">
-        <v>31.8396</v>
+        <v>28.8446</v>
       </c>
       <c r="F100" t="n">
-        <v>37.6892</v>
+        <v>36.6409</v>
       </c>
       <c r="G100" t="n">
-        <v>38.5219</v>
+        <v>37.0119</v>
       </c>
       <c r="H100" t="n">
-        <v>142.171</v>
+        <v>136.632</v>
       </c>
     </row>
     <row r="101">
@@ -11389,26 +11389,26 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SlideEditing_1280x720_30_300_qp40(anchor)</t>
+          <t>SlideEditing_1280x720_30_300_qp45(anchor)</t>
         </is>
       </c>
       <c r="C101" t="n">
         <v>300</v>
       </c>
       <c r="D101" t="n">
-        <v>151.588</v>
+        <v>78.548</v>
       </c>
       <c r="E101" t="n">
-        <v>26.9241</v>
+        <v>22.9014</v>
       </c>
       <c r="F101" t="n">
-        <v>36.0276</v>
+        <v>34.6839</v>
       </c>
       <c r="G101" t="n">
-        <v>36.2326</v>
+        <v>34.6614</v>
       </c>
       <c r="H101" t="n">
-        <v>116.052</v>
+        <v>111.877</v>
       </c>
     </row>
     <row r="102">
@@ -11436,7 +11436,7 @@
         <v>52.5463</v>
       </c>
       <c r="H102" t="n">
-        <v>376.571</v>
+        <v>397.828</v>
       </c>
     </row>
     <row r="103">
@@ -11445,26 +11445,26 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>SlideShow_1280x720_20_500_qp30(anchor)</t>
+          <t>SlideShow_1280x720_20_500_qp32(anchor)</t>
         </is>
       </c>
       <c r="C103" t="n">
         <v>500</v>
       </c>
       <c r="D103" t="n">
-        <v>398.3328</v>
+        <v>323.5949</v>
       </c>
       <c r="E103" t="n">
-        <v>44.5316</v>
+        <v>42.9492</v>
       </c>
       <c r="F103" t="n">
-        <v>49.5521</v>
+        <v>48.3863</v>
       </c>
       <c r="G103" t="n">
-        <v>50.9839</v>
+        <v>49.8859</v>
       </c>
       <c r="H103" t="n">
-        <v>338.506</v>
+        <v>323.61</v>
       </c>
     </row>
     <row r="104">
@@ -11473,26 +11473,26 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SlideShow_1280x720_20_500_qp35(anchor)</t>
+          <t>SlideShow_1280x720_20_500_qp38(anchor)</t>
         </is>
       </c>
       <c r="C104" t="n">
         <v>500</v>
       </c>
       <c r="D104" t="n">
-        <v>237.6456</v>
+        <v>176.5277</v>
       </c>
       <c r="E104" t="n">
-        <v>40.5795</v>
+        <v>38.2846</v>
       </c>
       <c r="F104" t="n">
-        <v>46.83</v>
+        <v>45.3548</v>
       </c>
       <c r="G104" t="n">
-        <v>48.4895</v>
+        <v>47.1337</v>
       </c>
       <c r="H104" t="n">
-        <v>274.34</v>
+        <v>262.049</v>
       </c>
     </row>
     <row r="105">
@@ -11501,26 +11501,26 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>SlideShow_1280x720_20_500_qp40(anchor)</t>
+          <t>SlideShow_1280x720_20_500_qp45(anchor)</t>
         </is>
       </c>
       <c r="C105" t="n">
         <v>500</v>
       </c>
       <c r="D105" t="n">
-        <v>150.2357</v>
+        <v>99.9466</v>
       </c>
       <c r="E105" t="n">
-        <v>37.3024</v>
+        <v>35.0196</v>
       </c>
       <c r="F105" t="n">
-        <v>44.4312</v>
+        <v>42.524</v>
       </c>
       <c r="G105" t="n">
-        <v>46.4066</v>
+        <v>44.8239</v>
       </c>
       <c r="H105" t="n">
-        <v>213.501</v>
+        <v>207.001</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/data_analysis/out/analysis_result_x265_vs._vvenc.xlsx
+++ b/scripts/data_analysis/out/analysis_result_x265_vs._vvenc.xlsx
@@ -160,6 +160,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="31"/>
         </scaling>
         <axPos val="l"/>
@@ -174,32 +200,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -308,6 +308,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="29"/>
         </scaling>
         <axPos val="l"/>
@@ -322,32 +348,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -456,6 +456,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="27"/>
         </scaling>
         <axPos val="l"/>
@@ -470,32 +496,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -604,6 +604,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="27"/>
         </scaling>
         <axPos val="l"/>
@@ -618,32 +644,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -752,6 +752,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="26"/>
         </scaling>
         <axPos val="l"/>
@@ -766,32 +792,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -900,6 +900,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="21"/>
         </scaling>
         <axPos val="l"/>
@@ -914,32 +940,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1048,6 +1048,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="24"/>
         </scaling>
         <axPos val="l"/>
@@ -1062,32 +1088,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1196,6 +1196,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="25"/>
         </scaling>
         <axPos val="l"/>
@@ -1210,32 +1236,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1344,6 +1344,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="23"/>
         </scaling>
         <axPos val="l"/>
@@ -1358,32 +1384,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1492,6 +1492,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="22"/>
         </scaling>
         <axPos val="l"/>
@@ -1506,32 +1532,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1640,6 +1640,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="24"/>
         </scaling>
         <axPos val="l"/>
@@ -1654,32 +1680,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1788,6 +1788,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="32"/>
         </scaling>
         <axPos val="l"/>
@@ -1802,32 +1828,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1936,6 +1936,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="31"/>
         </scaling>
         <axPos val="l"/>
@@ -1950,32 +1976,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2084,6 +2084,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="33"/>
         </scaling>
         <axPos val="l"/>
@@ -2098,32 +2124,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2232,6 +2232,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="32"/>
         </scaling>
         <axPos val="l"/>
@@ -2246,32 +2272,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2380,6 +2380,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="26"/>
         </scaling>
         <axPos val="l"/>
@@ -2394,32 +2420,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2528,6 +2528,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="25"/>
         </scaling>
         <axPos val="l"/>
@@ -2542,32 +2568,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2676,6 +2676,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="20"/>
         </scaling>
         <axPos val="l"/>
@@ -2690,32 +2716,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2824,6 +2824,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="33"/>
         </scaling>
         <axPos val="l"/>
@@ -2838,32 +2864,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2972,6 +2972,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="31"/>
         </scaling>
         <axPos val="l"/>
@@ -2986,32 +3012,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3120,6 +3120,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="30"/>
         </scaling>
         <axPos val="l"/>
@@ -3134,32 +3160,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3268,6 +3268,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="23"/>
         </scaling>
         <axPos val="l"/>
@@ -3282,32 +3308,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3416,6 +3416,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="27"/>
         </scaling>
         <axPos val="l"/>
@@ -3430,32 +3456,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3564,6 +3564,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="27"/>
         </scaling>
         <axPos val="l"/>
@@ -3578,32 +3604,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3712,6 +3712,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="26"/>
         </scaling>
         <axPos val="l"/>
@@ -3726,32 +3752,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3860,6 +3860,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="27"/>
         </scaling>
         <axPos val="l"/>
@@ -3874,32 +3900,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
